--- a/documents/note/AA22-inst.xlsx
+++ b/documents/note/AA22-inst.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\borey11\documents\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\borey\borey\documents\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE971816-59FE-4A54-B6CF-D40CAA84ECA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,8 +59,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,53 +340,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="4" max="5" width="24.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>44044</v>
       </c>
       <c r="C1">
         <v>31</v>
       </c>
-      <c r="D1" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E1" s="2">
+      <c r="D1" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E1" s="1">
         <v>357.33333333333303</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>2066.666666666667</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>199642.66666666666</v>
       </c>
       <c r="H1">
         <v>200000</v>
       </c>
-      <c r="I1" s="2">
-        <v>180</v>
-      </c>
-      <c r="J1" s="2">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2">
+      <c r="I1" s="1">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1">
         <v>107</v>
       </c>
     </row>
@@ -392,34 +394,34 @@
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>44075</v>
       </c>
       <c r="C2">
         <v>31</v>
       </c>
-      <c r="D2" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E2" s="1">
         <v>361.02577777777788</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>2062.9742222222221</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>199281.64088888888</v>
       </c>
       <c r="H2">
         <v>200000</v>
       </c>
-      <c r="I2" s="2">
-        <v>180</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="I2" s="1">
+        <v>180</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
         <v>107</v>
       </c>
     </row>
@@ -427,34 +429,34 @@
       <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>44105</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
-      <c r="D3" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E3" s="1">
         <v>431.1835911111109</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1992.8164088888891</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>198850.45729777779</v>
       </c>
       <c r="H3">
         <v>200000</v>
       </c>
-      <c r="I3" s="2">
-        <v>180</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="I3" s="1">
+        <v>180</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <v>107</v>
       </c>
     </row>
@@ -462,34 +464,34 @@
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>44136</v>
       </c>
       <c r="C4">
         <v>31</v>
       </c>
-      <c r="D4" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E4" s="1">
         <v>369.21194125629609</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>2054.7880587437039</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>198481.24535652148</v>
       </c>
       <c r="H4">
         <v>200000</v>
       </c>
-      <c r="I4" s="2">
-        <v>180</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="I4" s="1">
+        <v>180</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
         <v>107</v>
       </c>
     </row>
@@ -497,34 +499,34 @@
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>44166</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E5" s="1">
         <v>439.18754643478542</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1984.8124535652146</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>198042.0578100867</v>
       </c>
       <c r="H5">
         <v>200000</v>
       </c>
-      <c r="I5" s="2">
-        <v>180</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="I5" s="1">
+        <v>180</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
         <v>107</v>
       </c>
     </row>
@@ -532,34 +534,34 @@
       <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>44197</v>
       </c>
       <c r="C6">
         <v>31</v>
       </c>
-      <c r="D6" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E6" s="1">
         <v>377.56540262910426</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>2046.4345973708957</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>197664.49240745758</v>
       </c>
       <c r="H6">
         <v>200000</v>
       </c>
-      <c r="I6" s="2">
-        <v>180</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="I6" s="1">
+        <v>180</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
         <v>107</v>
       </c>
     </row>
@@ -567,34 +569,34 @@
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>44228</v>
       </c>
       <c r="C7">
         <v>31</v>
       </c>
-      <c r="D7" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E7" s="1">
         <v>381.46691178960486</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>2042.5330882103951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>197283.02549566797</v>
       </c>
       <c r="H7">
         <v>200000</v>
       </c>
-      <c r="I7" s="2">
-        <v>180</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="I7" s="1">
+        <v>180</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
         <v>107</v>
       </c>
     </row>
@@ -602,34 +604,34 @@
       <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>44256</v>
       </c>
       <c r="C8">
         <v>28</v>
       </c>
-      <c r="D8" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E8" s="1">
         <v>582.6917620404322</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1841.3082379595678</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>196700.33373362754</v>
       </c>
       <c r="H8">
         <v>200000</v>
       </c>
-      <c r="I8" s="2">
-        <v>180</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="I8" s="1">
+        <v>180</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>107</v>
       </c>
     </row>
@@ -637,34 +639,34 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>44287</v>
       </c>
       <c r="C9">
         <v>31</v>
       </c>
-      <c r="D9" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E9" s="1">
         <v>391.42988475251514</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>2032.5701152474849</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>196308.90384887502</v>
       </c>
       <c r="H9">
         <v>200000</v>
       </c>
-      <c r="I9" s="2">
-        <v>180</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="I9" s="1">
+        <v>180</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
         <v>107</v>
       </c>
     </row>
@@ -672,34 +674,34 @@
       <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>44317</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E10" s="1">
         <v>460.91096151124975</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1963.0890384887502</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>195847.99288736377</v>
       </c>
       <c r="H10">
         <v>200000</v>
       </c>
-      <c r="I10" s="2">
-        <v>180</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="I10" s="1">
+        <v>180</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>107</v>
       </c>
     </row>
@@ -707,34 +709,34 @@
       <c r="A11">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>44348</v>
       </c>
       <c r="C11">
         <v>31</v>
       </c>
-      <c r="D11" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E11" s="1">
         <v>400.2374068305744</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>2023.7625931694256</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>195447.7554805332</v>
       </c>
       <c r="H11">
         <v>200000</v>
       </c>
-      <c r="I11" s="2">
-        <v>180</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="I11" s="1">
+        <v>180</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
         <v>107</v>
       </c>
     </row>
@@ -742,34 +744,34 @@
       <c r="A12">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>44378</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
-      <c r="D12" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E12" s="1">
         <v>469.52244519466831</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>1954.4775548053317</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>194978.23303533855</v>
       </c>
       <c r="H12">
         <v>200000</v>
       </c>
-      <c r="I12" s="2">
-        <v>180</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="I12" s="1">
+        <v>180</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
         <v>107</v>
       </c>
     </row>
@@ -777,34 +779,34 @@
       <c r="A13">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>44409</v>
       </c>
       <c r="C13">
         <v>31</v>
       </c>
-      <c r="D13" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E13" s="1">
         <v>409.22492530150203</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>2014.775074698498</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>194569.00811003704</v>
       </c>
       <c r="H13">
         <v>200000</v>
       </c>
-      <c r="I13" s="2">
-        <v>180</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="I13" s="1">
+        <v>180</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <v>107</v>
       </c>
     </row>
@@ -812,34 +814,34 @@
       <c r="A14">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>44440</v>
       </c>
       <c r="C14">
         <v>31</v>
       </c>
-      <c r="D14" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E14" s="1">
         <v>413.45358286295073</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>2010.5464171370493</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>194155.5545271741</v>
       </c>
       <c r="H14">
         <v>200000</v>
       </c>
-      <c r="I14" s="2">
-        <v>180</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="I14" s="1">
+        <v>180</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>107</v>
       </c>
     </row>
@@ -847,34 +849,34 @@
       <c r="A15">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>44470</v>
       </c>
       <c r="C15">
         <v>30</v>
       </c>
-      <c r="D15" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E15" s="1">
         <v>482.44445472825919</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>1941.5555452717408</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>193673.11007244585</v>
       </c>
       <c r="H15">
         <v>200000</v>
       </c>
-      <c r="I15" s="2">
-        <v>180</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="I15" s="1">
+        <v>180</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
         <v>107</v>
       </c>
     </row>
@@ -882,34 +884,34 @@
       <c r="A16">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>44501</v>
       </c>
       <c r="C16">
         <v>31</v>
       </c>
-      <c r="D16" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E16" s="1">
         <v>422.71119591805927</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>2001.2888040819407</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>193250.39887652779</v>
       </c>
       <c r="H16">
         <v>200000</v>
       </c>
-      <c r="I16" s="2">
-        <v>180</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="I16" s="1">
+        <v>180</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
         <v>107</v>
       </c>
     </row>
@@ -917,34 +919,34 @@
       <c r="A17">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>44531</v>
       </c>
       <c r="C17">
         <v>30</v>
       </c>
-      <c r="D17" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E17" s="1">
         <v>491.49601123472235</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>1932.5039887652777</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>192758.90286529306</v>
       </c>
       <c r="H17">
         <v>200000</v>
       </c>
-      <c r="I17" s="2">
-        <v>180</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="I17" s="1">
+        <v>180</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
         <v>107</v>
       </c>
     </row>
@@ -952,34 +954,34 @@
       <c r="A18">
         <v>19</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>44562</v>
       </c>
       <c r="C18">
         <v>31</v>
       </c>
-      <c r="D18" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E18" s="1">
         <v>432.15800372530498</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>1991.841996274695</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>192326.74486156774</v>
       </c>
       <c r="H18">
         <v>200000</v>
       </c>
-      <c r="I18" s="2">
-        <v>180</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="I18" s="1">
+        <v>180</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
         <v>107</v>
       </c>
     </row>
@@ -987,34 +989,34 @@
       <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>44593</v>
       </c>
       <c r="C19">
         <v>31</v>
       </c>
-      <c r="D19" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E19" s="1">
         <v>436.6236364304666</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>1987.3763635695334</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>191890.12122513726</v>
       </c>
       <c r="H19">
         <v>200000</v>
       </c>
-      <c r="I19" s="2">
-        <v>180</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="I19" s="1">
+        <v>180</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1022,34 +1024,34 @@
       <c r="A20">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>44621</v>
       </c>
       <c r="C20">
         <v>28</v>
       </c>
-      <c r="D20" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E20" s="1">
         <v>633.02553523205233</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>1790.9744647679477</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>191257.09568990523</v>
       </c>
       <c r="H20">
         <v>200000</v>
       </c>
-      <c r="I20" s="2">
-        <v>180</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="I20" s="1">
+        <v>180</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1057,34 +1059,34 @@
       <c r="A21">
         <v>22</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>44652</v>
       </c>
       <c r="C21">
         <v>31</v>
       </c>
-      <c r="D21" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E21" s="1">
         <v>447.67667787097935</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>1976.3233221290207</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>190809.41901203425</v>
       </c>
       <c r="H21">
         <v>200000</v>
       </c>
-      <c r="I21" s="2">
-        <v>180</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="I21" s="1">
+        <v>180</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1092,34 +1094,34 @@
       <c r="A22">
         <v>23</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>44682</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
-      <c r="D22" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E22" s="1">
         <v>515.90580987965768</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>1908.0941901203423</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>190293.5132021546</v>
       </c>
       <c r="H22">
         <v>200000</v>
       </c>
-      <c r="I22" s="2">
-        <v>180</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="I22" s="1">
+        <v>180</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1127,34 +1129,34 @@
       <c r="A23">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>44713</v>
       </c>
       <c r="C23">
         <v>31</v>
       </c>
-      <c r="D23" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E23" s="1">
         <v>457.63369691106936</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>1966.3663030889306</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>189835.87950524353</v>
       </c>
       <c r="H23">
         <v>200000</v>
       </c>
-      <c r="I23" s="2">
-        <v>180</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="I23" s="1">
+        <v>180</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1162,34 +1164,34 @@
       <c r="A24">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>44743</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
-      <c r="D24" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E24" s="1">
         <v>525.6412049475648</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>1898.3587950524352</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>189310.23830029595</v>
       </c>
       <c r="H24">
         <v>200000</v>
       </c>
-      <c r="I24" s="2">
-        <v>180</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="I24" s="1">
+        <v>180</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1197,34 +1199,34 @@
       <c r="A25">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>44774</v>
       </c>
       <c r="C25">
         <v>31</v>
       </c>
-      <c r="D25" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E25" s="1">
         <v>467.79420423027523</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>1956.2057957697248</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>188842.44409606568</v>
       </c>
       <c r="H25">
         <v>200000</v>
       </c>
-      <c r="I25" s="2">
-        <v>180</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="I25" s="1">
+        <v>180</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1232,34 +1234,34 @@
       <c r="A26">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>44805</v>
       </c>
       <c r="C26">
         <v>31</v>
       </c>
-      <c r="D26" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E26" s="1">
         <v>472.6280776739884</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>1951.3719223260116</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>188369.81601839169</v>
       </c>
       <c r="H26">
         <v>200000</v>
       </c>
-      <c r="I26" s="2">
-        <v>180</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="I26" s="1">
+        <v>180</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1267,34 +1269,34 @@
       <c r="A27">
         <v>28</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>44835</v>
       </c>
       <c r="C27">
         <v>30</v>
       </c>
-      <c r="D27" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E27" s="1">
         <v>540.3018398160832</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>1883.6981601839168</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>187829.5141785756</v>
       </c>
       <c r="H27">
         <v>200000</v>
       </c>
-      <c r="I27" s="2">
-        <v>180</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
+      <c r="I27" s="1">
+        <v>180</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1302,34 +1304,34 @@
       <c r="A28">
         <v>29</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>44866</v>
       </c>
       <c r="C28">
         <v>31</v>
       </c>
-      <c r="D28" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E28" s="1">
         <v>483.09502015471867</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>1940.9049798452813</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>187346.41915842087</v>
       </c>
       <c r="H28">
         <v>200000</v>
       </c>
-      <c r="I28" s="2">
-        <v>180</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
+      <c r="I28" s="1">
+        <v>180</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1337,34 +1339,34 @@
       <c r="A29">
         <v>30</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>44896</v>
       </c>
       <c r="C29">
         <v>30</v>
       </c>
-      <c r="D29" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E29" s="1">
         <v>550.53580841579128</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>1873.4641915842087</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>186795.88335000508</v>
       </c>
       <c r="H29">
         <v>200000</v>
       </c>
-      <c r="I29" s="2">
-        <v>180</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="I29" s="1">
+        <v>180</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1372,34 +1374,34 @@
       <c r="A30">
         <v>31</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>44927</v>
       </c>
       <c r="C30">
         <v>31</v>
       </c>
-      <c r="D30" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E30" s="1">
         <v>493.77587204994757</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>1930.2241279500524</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>186302.10747795514</v>
       </c>
       <c r="H30">
         <v>200000</v>
       </c>
-      <c r="I30" s="2">
-        <v>180</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
+      <c r="I30" s="1">
+        <v>180</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1407,34 +1409,34 @@
       <c r="A31">
         <v>32</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>44958</v>
       </c>
       <c r="C31">
         <v>31</v>
       </c>
-      <c r="D31" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E31" s="1">
         <v>498.87822272779681</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>1925.1217772722032</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>185803.22925522734</v>
       </c>
       <c r="H31">
         <v>200000</v>
       </c>
-      <c r="I31" s="2">
-        <v>180</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2">
+      <c r="I31" s="1">
+        <v>180</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1442,34 +1444,34 @@
       <c r="A32">
         <v>33</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>44986</v>
       </c>
       <c r="C32">
         <v>28</v>
       </c>
-      <c r="D32" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E32" s="1">
         <v>689.83652695121168</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>1734.1634730487883</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>185113.39272827614</v>
       </c>
       <c r="H32">
         <v>200000</v>
       </c>
-      <c r="I32" s="2">
-        <v>180</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
+      <c r="I32" s="1">
+        <v>180</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1477,34 +1479,34 @@
       <c r="A33">
         <v>34</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>45017</v>
       </c>
       <c r="C33">
         <v>31</v>
       </c>
-      <c r="D33" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E33" s="1">
         <v>511.16160847447964</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>1912.8383915255204</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>184602.23111980167</v>
       </c>
       <c r="H33">
         <v>200000</v>
       </c>
-      <c r="I33" s="2">
-        <v>180</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
+      <c r="I33" s="1">
+        <v>180</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1512,34 +1514,34 @@
       <c r="A34">
         <v>35</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>45047</v>
       </c>
       <c r="C34">
         <v>30</v>
       </c>
-      <c r="D34" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E34" s="1">
         <v>577.97768880198328</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>1846.0223111980167</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>184024.2534309997</v>
       </c>
       <c r="H34">
         <v>200000</v>
       </c>
-      <c r="I34" s="2">
-        <v>180</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="I34" s="1">
+        <v>180</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1547,34 +1549,34 @@
       <c r="A35">
         <v>36</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>45078</v>
       </c>
       <c r="C35">
         <v>31</v>
       </c>
-      <c r="D35" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E35" s="1">
         <v>522.4160478796698</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>1901.5839521203302</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>183501.83738312003</v>
       </c>
       <c r="H35">
         <v>200000</v>
       </c>
-      <c r="I35" s="2">
-        <v>180</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2">
+      <c r="I35" s="1">
+        <v>180</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1582,34 +1584,34 @@
       <c r="A36">
         <v>37</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>45108</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
-      <c r="D36" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E36" s="1">
         <v>588.98162616879995</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>1835.0183738312001</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>182912.85575695123</v>
       </c>
       <c r="H36">
         <v>200000</v>
       </c>
-      <c r="I36" s="2">
-        <v>180</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2">
+      <c r="I36" s="1">
+        <v>180</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1617,34 +1619,34 @@
       <c r="A37">
         <v>38</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>45139</v>
       </c>
       <c r="C37">
         <v>31</v>
       </c>
-      <c r="D37" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E37" s="1">
         <v>533.9004905115039</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>1890.0995094884961</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>182378.95526643973</v>
       </c>
       <c r="H37">
         <v>200000</v>
       </c>
-      <c r="I37" s="2">
-        <v>180</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2">
+      <c r="I37" s="1">
+        <v>180</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1652,34 +1654,34 @@
       <c r="A38">
         <v>39</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>45170</v>
       </c>
       <c r="C38">
         <v>31</v>
       </c>
-      <c r="D38" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="D38" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E38" s="1">
         <v>539.41746224678968</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>1884.5825377532103</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>181839.53780419295</v>
       </c>
       <c r="H38">
         <v>200000</v>
       </c>
-      <c r="I38" s="2">
-        <v>180</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="I38" s="1">
+        <v>180</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1687,34 +1689,34 @@
       <c r="A39">
         <v>40</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>45200</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
-      <c r="D39" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E39" s="1">
         <v>605.60462195807054</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>1818.3953780419295</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>181233.93318223488</v>
       </c>
       <c r="H39">
         <v>200000</v>
       </c>
-      <c r="I39" s="2">
-        <v>180</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2">
+      <c r="I39" s="1">
+        <v>180</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1722,34 +1724,34 @@
       <c r="A40">
         <v>41</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>45231</v>
       </c>
       <c r="C40">
         <v>31</v>
       </c>
-      <c r="D40" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E40" s="1">
         <v>551.24935711690659</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>1872.7506428830934</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>180682.68382511797</v>
       </c>
       <c r="H40">
         <v>200000</v>
       </c>
-      <c r="I40" s="2">
-        <v>180</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="I40" s="1">
+        <v>180</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1757,34 +1759,34 @@
       <c r="A41">
         <v>42</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>45261</v>
       </c>
       <c r="C41">
         <v>30</v>
       </c>
-      <c r="D41" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E41" s="1">
         <v>617.17316174882035</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>1806.8268382511797</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>180065.51066336915</v>
       </c>
       <c r="H41">
         <v>200000</v>
       </c>
-      <c r="I41" s="2">
-        <v>180</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2">
+      <c r="I41" s="1">
+        <v>180</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1792,34 +1794,34 @@
       <c r="A42">
         <v>43</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>45292</v>
       </c>
       <c r="C42">
         <v>31</v>
       </c>
-      <c r="D42" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E42" s="1">
         <v>563.32305647851877</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>1860.6769435214812</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>179502.18760689063</v>
       </c>
       <c r="H42">
         <v>200000</v>
       </c>
-      <c r="I42" s="2">
-        <v>180</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2">
+      <c r="I42" s="1">
+        <v>180</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1827,34 +1829,34 @@
       <c r="A43">
         <v>44</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>45323</v>
       </c>
       <c r="C43">
         <v>31</v>
       </c>
-      <c r="D43" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E43" s="1">
         <v>569.14406139546372</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>1854.8559386045363</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>178933.04354549517</v>
       </c>
       <c r="H43">
         <v>200000</v>
       </c>
-      <c r="I43" s="2">
-        <v>180</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="I43" s="1">
+        <v>180</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1862,34 +1864,34 @@
       <c r="A44">
         <v>45</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>45352</v>
       </c>
       <c r="C44">
         <v>29</v>
       </c>
-      <c r="D44" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E44" s="1">
         <v>694.31391239354684</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>1729.6860876064532</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>178238.72963310161</v>
       </c>
       <c r="H44">
         <v>200000</v>
       </c>
-      <c r="I44" s="2">
-        <v>180</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2">
+      <c r="I44" s="1">
+        <v>180</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1897,34 +1899,34 @@
       <c r="A45">
         <v>46</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>45383</v>
       </c>
       <c r="C45">
         <v>31</v>
       </c>
-      <c r="D45" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E45" s="1">
         <v>582.19979379128358</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>1841.8002062087164</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>177656.52983931033</v>
       </c>
       <c r="H45">
         <v>200000</v>
       </c>
-      <c r="I45" s="2">
-        <v>180</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2">
+      <c r="I45" s="1">
+        <v>180</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1932,34 +1934,34 @@
       <c r="A46">
         <v>47</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>45413</v>
       </c>
       <c r="C46">
         <v>30</v>
       </c>
-      <c r="D46" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E46" s="1">
         <v>647.43470160689685</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>1776.5652983931031</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>177009.09513770344</v>
       </c>
       <c r="H46">
         <v>200000</v>
       </c>
-      <c r="I46" s="2">
-        <v>180</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="I46" s="1">
+        <v>180</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
         <v>107</v>
       </c>
     </row>
@@ -1967,34 +1969,34 @@
       <c r="A47">
         <v>48</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>45444</v>
       </c>
       <c r="C47">
         <v>31</v>
       </c>
-      <c r="D47" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E47" s="1">
         <v>594.90601691039819</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>1829.0939830896018</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>176414.18912079305</v>
       </c>
       <c r="H47">
         <v>200000</v>
       </c>
-      <c r="I47" s="2">
-        <v>180</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
+      <c r="I47" s="1">
+        <v>180</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2002,34 +2004,34 @@
       <c r="A48">
         <v>49</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>45474</v>
       </c>
       <c r="C48">
         <v>30</v>
       </c>
-      <c r="D48" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E48" s="1">
         <v>659.85810879206952</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>1764.1418912079305</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>175754.33101200097</v>
       </c>
       <c r="H48">
         <v>200000</v>
       </c>
-      <c r="I48" s="2">
-        <v>180</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2">
+      <c r="I48" s="1">
+        <v>180</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2037,34 +2039,34 @@
       <c r="A49">
         <v>50</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>45505</v>
       </c>
       <c r="C49">
         <v>31</v>
       </c>
-      <c r="D49" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E49" s="1">
         <v>607.87191287598989</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>1816.1280871240101</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>175146.45909912497</v>
       </c>
       <c r="H49">
         <v>200000</v>
       </c>
-      <c r="I49" s="2">
-        <v>180</v>
-      </c>
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2">
+      <c r="I49" s="1">
+        <v>180</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2072,34 +2074,34 @@
       <c r="A50">
         <v>51</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>45536</v>
       </c>
       <c r="C50">
         <v>31</v>
       </c>
-      <c r="D50" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E50" s="1">
         <v>614.15325597570882</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>1809.8467440242912</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>174532.30584314925</v>
       </c>
       <c r="H50">
         <v>200000</v>
       </c>
-      <c r="I50" s="2">
-        <v>180</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2">
+      <c r="I50" s="1">
+        <v>180</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2107,34 +2109,34 @@
       <c r="A51">
         <v>52</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>45566</v>
       </c>
       <c r="C51">
         <v>30</v>
       </c>
-      <c r="D51" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D51" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E51" s="1">
         <v>678.67694156850757</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>1745.3230584314924</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>173853.62890158076</v>
       </c>
       <c r="H51">
         <v>200000</v>
       </c>
-      <c r="I51" s="2">
-        <v>180</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2">
+      <c r="I51" s="1">
+        <v>180</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2142,34 +2144,34 @@
       <c r="A52">
         <v>53</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>45597</v>
       </c>
       <c r="C52">
         <v>31</v>
       </c>
-      <c r="D52" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E52" s="1">
         <v>627.51250135033229</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>1796.4874986496677</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>173226.11640023041</v>
       </c>
       <c r="H52">
         <v>200000</v>
       </c>
-      <c r="I52" s="2">
-        <v>180</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2">
+      <c r="I52" s="1">
+        <v>180</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2177,34 +2179,34 @@
       <c r="A53">
         <v>54</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>45627</v>
       </c>
       <c r="C53">
         <v>30</v>
       </c>
-      <c r="D53" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E53" s="1">
         <v>691.73883599769579</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>1732.2611640023042</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>172534.37756423271</v>
       </c>
       <c r="H53">
         <v>200000</v>
       </c>
-      <c r="I53" s="2">
-        <v>180</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2">
+      <c r="I53" s="1">
+        <v>180</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2212,34 +2214,34 @@
       <c r="A54">
         <v>55</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>45658</v>
       </c>
       <c r="C54">
         <v>31</v>
       </c>
-      <c r="D54" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D54" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E54" s="1">
         <v>641.14476516959553</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>1782.8552348304045</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>171893.23279906312</v>
       </c>
       <c r="H54">
         <v>200000</v>
       </c>
-      <c r="I54" s="2">
-        <v>180</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2">
+      <c r="I54" s="1">
+        <v>180</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2247,34 +2249,34 @@
       <c r="A55">
         <v>56</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>45689</v>
       </c>
       <c r="C55">
         <v>31</v>
       </c>
-      <c r="D55" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E55" s="1">
         <v>647.76992774301448</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>1776.2300722569855</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>171245.46287132011</v>
       </c>
       <c r="H55">
         <v>200000</v>
       </c>
-      <c r="I55" s="2">
-        <v>180</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1</v>
-      </c>
-      <c r="K55" s="2">
+      <c r="I55" s="1">
+        <v>180</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2282,34 +2284,34 @@
       <c r="A56">
         <v>57</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>45717</v>
       </c>
       <c r="C56">
         <v>28</v>
       </c>
-      <c r="D56" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="D56" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E56" s="1">
         <v>825.70901320101234</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>1598.2909867989877</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="1">
         <v>170419.7538581191</v>
       </c>
       <c r="H56">
         <v>200000</v>
       </c>
-      <c r="I56" s="2">
-        <v>180</v>
-      </c>
-      <c r="J56" s="2">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2">
+      <c r="I56" s="1">
+        <v>180</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2317,34 +2319,34 @@
       <c r="A57">
         <v>58</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>45748</v>
       </c>
       <c r="C57">
         <v>31</v>
       </c>
-      <c r="D57" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="D57" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E57" s="1">
         <v>662.99587679943602</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>1761.004123200564</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="1">
         <v>169756.75798131968</v>
       </c>
       <c r="H57">
         <v>200000</v>
       </c>
-      <c r="I57" s="2">
-        <v>180</v>
-      </c>
-      <c r="J57" s="2">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2">
+      <c r="I57" s="1">
+        <v>180</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2352,34 +2354,34 @@
       <c r="A58">
         <v>59</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>45778</v>
       </c>
       <c r="C58">
         <v>30</v>
       </c>
-      <c r="D58" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E58" s="1">
         <v>726.43242018680326</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>1697.5675798131967</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="1">
         <v>169030.32556113286</v>
       </c>
       <c r="H58">
         <v>200000</v>
       </c>
-      <c r="I58" s="2">
-        <v>180</v>
-      </c>
-      <c r="J58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
+      <c r="I58" s="1">
+        <v>180</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2387,34 +2389,34 @@
       <c r="A59">
         <v>60</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>45809</v>
       </c>
       <c r="C59">
         <v>31</v>
       </c>
-      <c r="D59" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D59" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E59" s="1">
         <v>677.35330253496068</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>1746.6466974650393</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="1">
         <v>168352.9722585979</v>
       </c>
       <c r="H59">
         <v>200000</v>
       </c>
-      <c r="I59" s="2">
-        <v>180</v>
-      </c>
-      <c r="J59" s="2">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2">
+      <c r="I59" s="1">
+        <v>180</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2422,34 +2424,34 @@
       <c r="A60">
         <v>61</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>45839</v>
       </c>
       <c r="C60">
         <v>30</v>
       </c>
-      <c r="D60" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E60" s="1">
         <v>740.47027741402121</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>1683.5297225859788</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="1">
         <v>167612.50198118389</v>
       </c>
       <c r="H60">
         <v>200000</v>
       </c>
-      <c r="I60" s="2">
-        <v>180</v>
-      </c>
-      <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
+      <c r="I60" s="1">
+        <v>180</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2457,34 +2459,34 @@
       <c r="A61">
         <v>62</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>45870</v>
       </c>
       <c r="C61">
         <v>31</v>
       </c>
-      <c r="D61" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="D61" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E61" s="1">
         <v>692.00414619443336</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>1731.9958538055666</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="1">
         <v>166920.49783498945</v>
       </c>
       <c r="H61">
         <v>200000</v>
       </c>
-      <c r="I61" s="2">
-        <v>180</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2">
+      <c r="I61" s="1">
+        <v>180</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2492,34 +2494,34 @@
       <c r="A62">
         <v>63</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>45901</v>
       </c>
       <c r="C62">
         <v>31</v>
       </c>
-      <c r="D62" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="D62" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E62" s="1">
         <v>699.15485570510896</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>1724.845144294891</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="1">
         <v>166221.34297928435</v>
       </c>
       <c r="H62">
         <v>200000</v>
       </c>
-      <c r="I62" s="2">
-        <v>180</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2">
+      <c r="I62" s="1">
+        <v>180</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2527,34 +2529,34 @@
       <c r="A63">
         <v>64</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>45931</v>
       </c>
       <c r="C63">
         <v>30</v>
       </c>
-      <c r="D63" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="D63" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E63" s="1">
         <v>761.78657020715627</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>1662.2134297928437</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="1">
         <v>165459.55640907719</v>
       </c>
       <c r="H63">
         <v>200000</v>
       </c>
-      <c r="I63" s="2">
-        <v>180</v>
-      </c>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2">
+      <c r="I63" s="1">
+        <v>180</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2562,34 +2564,34 @@
       <c r="A64">
         <v>65</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>45962</v>
       </c>
       <c r="C64">
         <v>31</v>
       </c>
-      <c r="D64" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D64" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E64" s="1">
         <v>714.2512504395354</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>1709.7487495604646</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="1">
         <v>164745.30515863767</v>
       </c>
       <c r="H64">
         <v>200000</v>
       </c>
-      <c r="I64" s="2">
-        <v>180</v>
-      </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2">
+      <c r="I64" s="1">
+        <v>180</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2597,34 +2599,34 @@
       <c r="A65">
         <v>66</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>45992</v>
       </c>
       <c r="C65">
         <v>30</v>
       </c>
-      <c r="D65" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="D65" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E65" s="1">
         <v>776.54694841362357</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>1647.4530515863764</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="1">
         <v>163968.75821022404</v>
       </c>
       <c r="H65">
         <v>200000</v>
       </c>
-      <c r="I65" s="2">
-        <v>180</v>
-      </c>
-      <c r="J65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2">
+      <c r="I65" s="1">
+        <v>180</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2632,34 +2634,34 @@
       <c r="A66">
         <v>67</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>46023</v>
       </c>
       <c r="C66">
         <v>31</v>
       </c>
-      <c r="D66" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="D66" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E66" s="1">
         <v>729.65616516101841</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>1694.3438348389816</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="1">
         <v>163239.10204506302</v>
       </c>
       <c r="H66">
         <v>200000</v>
       </c>
-      <c r="I66" s="2">
-        <v>180</v>
-      </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2">
+      <c r="I66" s="1">
+        <v>180</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2667,34 +2669,34 @@
       <c r="A67">
         <v>68</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>46054</v>
       </c>
       <c r="C67">
         <v>31</v>
       </c>
-      <c r="D67" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="D67" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E67" s="1">
         <v>737.19594553434877</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>1686.8040544656512</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="1">
         <v>162501.90609952866</v>
       </c>
       <c r="H67">
         <v>200000</v>
       </c>
-      <c r="I67" s="2">
-        <v>180</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
+      <c r="I67" s="1">
+        <v>180</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2702,34 +2704,34 @@
       <c r="A68">
         <v>69</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>46082</v>
       </c>
       <c r="C68">
         <v>28</v>
       </c>
-      <c r="D68" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E68" s="2">
+      <c r="D68" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E68" s="1">
         <v>907.31554307106603</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>1516.684456928934</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="1">
         <v>161594.59055645758</v>
       </c>
       <c r="H68">
         <v>200000</v>
       </c>
-      <c r="I68" s="2">
-        <v>180</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
+      <c r="I68" s="1">
+        <v>180</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2737,34 +2739,34 @@
       <c r="A69">
         <v>70</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>46113</v>
       </c>
       <c r="C69">
         <v>31</v>
       </c>
-      <c r="D69" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="D69" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E69" s="1">
         <v>754.18923091660508</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>1669.8107690833949</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="1">
         <v>160840.40132554097</v>
       </c>
       <c r="H69">
         <v>200000</v>
       </c>
-      <c r="I69" s="2">
-        <v>180</v>
-      </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2">
+      <c r="I69" s="1">
+        <v>180</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2772,34 +2774,34 @@
       <c r="A70">
         <v>71</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>46143</v>
       </c>
       <c r="C70">
         <v>30</v>
       </c>
-      <c r="D70" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E70" s="2">
+      <c r="D70" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E70" s="1">
         <v>815.59598674459062</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>1608.4040132554094</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="1">
         <v>160024.80533879637</v>
       </c>
       <c r="H70">
         <v>200000</v>
       </c>
-      <c r="I70" s="2">
-        <v>180</v>
-      </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
+      <c r="I70" s="1">
+        <v>180</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2807,34 +2809,34 @@
       <c r="A71">
         <v>72</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>46174</v>
       </c>
       <c r="C71">
         <v>31</v>
       </c>
-      <c r="D71" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="D71" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E71" s="1">
         <v>770.41034483243743</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>1653.5896551675626</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="1">
         <v>159254.39499396394</v>
       </c>
       <c r="H71">
         <v>200000</v>
       </c>
-      <c r="I71" s="2">
-        <v>180</v>
-      </c>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2">
+      <c r="I71" s="1">
+        <v>180</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2842,34 +2844,34 @@
       <c r="A72">
         <v>73</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>46204</v>
       </c>
       <c r="C72">
         <v>30</v>
       </c>
-      <c r="D72" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="D72" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E72" s="1">
         <v>831.45605006036044</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>1592.5439499396396</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="1">
         <v>158422.93894390357</v>
       </c>
       <c r="H72">
         <v>200000</v>
       </c>
-      <c r="I72" s="2">
-        <v>180</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
+      <c r="I72" s="1">
+        <v>180</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2877,34 +2879,34 @@
       <c r="A73">
         <v>74</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>46235</v>
       </c>
       <c r="C73">
         <v>31</v>
       </c>
-      <c r="D73" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="D73" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E73" s="1">
         <v>786.96296424632988</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <v>1637.0370357536701</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="1">
         <v>157635.97597965723</v>
       </c>
       <c r="H73">
         <v>200000</v>
       </c>
-      <c r="I73" s="2">
-        <v>180</v>
-      </c>
-      <c r="J73" s="2">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2">
+      <c r="I73" s="1">
+        <v>180</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2912,34 +2914,34 @@
       <c r="A74">
         <v>75</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>46266</v>
       </c>
       <c r="C74">
         <v>31</v>
       </c>
-      <c r="D74" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="D74" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E74" s="1">
         <v>795.09491487687501</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <v>1628.905085123125</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="1">
         <v>156840.88106478035</v>
       </c>
       <c r="H74">
         <v>200000</v>
       </c>
-      <c r="I74" s="2">
-        <v>180</v>
-      </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2">
+      <c r="I74" s="1">
+        <v>180</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2947,34 +2949,34 @@
       <c r="A75">
         <v>76</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>46296</v>
       </c>
       <c r="C75">
         <v>30</v>
       </c>
-      <c r="D75" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E75" s="2">
+      <c r="D75" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E75" s="1">
         <v>855.59118935219681</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>1568.4088106478032</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="1">
         <v>155985.28987542816</v>
       </c>
       <c r="H75">
         <v>200000</v>
       </c>
-      <c r="I75" s="2">
-        <v>180</v>
-      </c>
-      <c r="J75" s="2">
-        <v>1</v>
-      </c>
-      <c r="K75" s="2">
+      <c r="I75" s="1">
+        <v>180</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
         <v>107</v>
       </c>
     </row>
@@ -2982,34 +2984,34 @@
       <c r="A76">
         <v>77</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>46327</v>
       </c>
       <c r="C76">
         <v>31</v>
       </c>
-      <c r="D76" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="D76" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E76" s="1">
         <v>812.15200462057555</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="1">
         <v>1611.8479953794244</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="1">
         <v>155173.13787080758</v>
       </c>
       <c r="H76">
         <v>200000</v>
       </c>
-      <c r="I76" s="2">
-        <v>180</v>
-      </c>
-      <c r="J76" s="2">
-        <v>1</v>
-      </c>
-      <c r="K76" s="2">
+      <c r="I76" s="1">
+        <v>180</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3017,34 +3019,34 @@
       <c r="A77">
         <v>78</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>46357</v>
       </c>
       <c r="C77">
         <v>30</v>
       </c>
-      <c r="D77" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E77" s="2">
+      <c r="D77" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E77" s="1">
         <v>872.26862129192432</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>1551.7313787080757</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="1">
         <v>154300.86924951564</v>
       </c>
       <c r="H77">
         <v>200000</v>
       </c>
-      <c r="I77" s="2">
-        <v>180</v>
-      </c>
-      <c r="J77" s="2">
-        <v>1</v>
-      </c>
-      <c r="K77" s="2">
+      <c r="I77" s="1">
+        <v>180</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3052,34 +3054,34 @@
       <c r="A78">
         <v>79</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>46388</v>
       </c>
       <c r="C78">
         <v>31</v>
       </c>
-      <c r="D78" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="D78" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E78" s="1">
         <v>829.55768442167187</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="1">
         <v>1594.4423155783281</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="1">
         <v>153471.31156509396</v>
       </c>
       <c r="H78">
         <v>200000</v>
       </c>
-      <c r="I78" s="2">
-        <v>180</v>
-      </c>
-      <c r="J78" s="2">
-        <v>1</v>
-      </c>
-      <c r="K78" s="2">
+      <c r="I78" s="1">
+        <v>180</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3087,34 +3089,34 @@
       <c r="A79">
         <v>80</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>46419</v>
       </c>
       <c r="C79">
         <v>31</v>
       </c>
-      <c r="D79" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="D79" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E79" s="1">
         <v>838.12978049402909</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="1">
         <v>1585.8702195059709</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="1">
         <v>152633.18178459993</v>
       </c>
       <c r="H79">
         <v>200000</v>
       </c>
-      <c r="I79" s="2">
-        <v>180</v>
-      </c>
-      <c r="J79" s="2">
-        <v>1</v>
-      </c>
-      <c r="K79" s="2">
+      <c r="I79" s="1">
+        <v>180</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3122,34 +3124,34 @@
       <c r="A80">
         <v>81</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>46447</v>
       </c>
       <c r="C80">
         <v>28</v>
       </c>
-      <c r="D80" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E80" s="2">
+      <c r="D80" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E80" s="1">
         <v>999.42363667706741</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <v>1424.5763633229326</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="1">
         <v>151633.75814792287</v>
       </c>
       <c r="H80">
         <v>200000</v>
       </c>
-      <c r="I80" s="2">
-        <v>180</v>
-      </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2">
+      <c r="I80" s="1">
+        <v>180</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3157,34 +3159,34 @@
       <c r="A81">
         <v>82</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>46478</v>
       </c>
       <c r="C81">
         <v>31</v>
       </c>
-      <c r="D81" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E81" s="2">
+      <c r="D81" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E81" s="1">
         <v>857.11783247146377</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <v>1566.8821675285362</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="1">
         <v>150776.6403154514</v>
       </c>
       <c r="H81">
         <v>200000</v>
       </c>
-      <c r="I81" s="2">
-        <v>180</v>
-      </c>
-      <c r="J81" s="2">
-        <v>1</v>
-      </c>
-      <c r="K81" s="2">
+      <c r="I81" s="1">
+        <v>180</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3192,34 +3194,34 @@
       <c r="A82">
         <v>83</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>46508</v>
       </c>
       <c r="C82">
         <v>30</v>
       </c>
-      <c r="D82" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E82" s="2">
+      <c r="D82" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E82" s="1">
         <v>916.23359684548586</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="1">
         <v>1507.7664031545141</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="1">
         <v>149860.40671860593</v>
       </c>
       <c r="H82">
         <v>200000</v>
       </c>
-      <c r="I82" s="2">
-        <v>180</v>
-      </c>
-      <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2">
+      <c r="I82" s="1">
+        <v>180</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3227,34 +3229,34 @@
       <c r="A83">
         <v>84</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>46539</v>
       </c>
       <c r="C83">
         <v>31</v>
       </c>
-      <c r="D83" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="D83" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E83" s="1">
         <v>875.44246390773901</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="1">
         <v>1548.557536092261</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="1">
         <v>148984.96425469819</v>
       </c>
       <c r="H83">
         <v>200000</v>
       </c>
-      <c r="I83" s="2">
-        <v>180</v>
-      </c>
-      <c r="J83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" s="2">
+      <c r="I83" s="1">
+        <v>180</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3262,34 +3264,34 @@
       <c r="A84">
         <v>85</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>46569</v>
       </c>
       <c r="C84">
         <v>30</v>
       </c>
-      <c r="D84" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E84" s="2">
+      <c r="D84" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E84" s="1">
         <v>934.15035745301816</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="1">
         <v>1489.8496425469818</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="1">
         <v>148050.81389724519</v>
       </c>
       <c r="H84">
         <v>200000</v>
       </c>
-      <c r="I84" s="2">
-        <v>180</v>
-      </c>
-      <c r="J84" s="2">
-        <v>1</v>
-      </c>
-      <c r="K84" s="2">
+      <c r="I84" s="1">
+        <v>180</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3297,34 +3299,34 @@
       <c r="A85">
         <v>86</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>46600</v>
       </c>
       <c r="C85">
         <v>31</v>
       </c>
-      <c r="D85" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E85" s="2">
+      <c r="D85" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E85" s="1">
         <v>894.14158972846622</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="1">
         <v>1529.8584102715338</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="1">
         <v>147156.67230751671</v>
       </c>
       <c r="H85">
         <v>200000</v>
       </c>
-      <c r="I85" s="2">
-        <v>180</v>
-      </c>
-      <c r="J85" s="2">
-        <v>1</v>
-      </c>
-      <c r="K85" s="2">
+      <c r="I85" s="1">
+        <v>180</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3332,34 +3334,34 @@
       <c r="A86">
         <v>87</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>46631</v>
       </c>
       <c r="C86">
         <v>31</v>
       </c>
-      <c r="D86" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E86" s="2">
+      <c r="D86" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E86" s="1">
         <v>903.38105282232755</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="1">
         <v>1520.6189471776725</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86" s="1">
         <v>146253.29125469437</v>
       </c>
       <c r="H86">
         <v>200000</v>
       </c>
-      <c r="I86" s="2">
-        <v>180</v>
-      </c>
-      <c r="J86" s="2">
-        <v>1</v>
-      </c>
-      <c r="K86" s="2">
+      <c r="I86" s="1">
+        <v>180</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3367,34 +3369,34 @@
       <c r="A87">
         <v>88</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>46661</v>
       </c>
       <c r="C87">
         <v>30</v>
       </c>
-      <c r="D87" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="D87" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E87" s="1">
         <v>961.46708745305637</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="1">
         <v>1462.5329125469436</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="1">
         <v>145291.82416724131</v>
       </c>
       <c r="H87">
         <v>200000</v>
       </c>
-      <c r="I87" s="2">
-        <v>180</v>
-      </c>
-      <c r="J87" s="2">
-        <v>1</v>
-      </c>
-      <c r="K87" s="2">
+      <c r="I87" s="1">
+        <v>180</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1</v>
+      </c>
+      <c r="K87" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3402,34 +3404,34 @@
       <c r="A88">
         <v>89</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>46692</v>
       </c>
       <c r="C88">
         <v>31</v>
       </c>
-      <c r="D88" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E88" s="2">
+      <c r="D88" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E88" s="1">
         <v>922.65115027183992</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="1">
         <v>1501.3488497281601</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="1">
         <v>144369.17301696946</v>
       </c>
       <c r="H88">
         <v>200000</v>
       </c>
-      <c r="I88" s="2">
-        <v>180</v>
-      </c>
-      <c r="J88" s="2">
-        <v>1</v>
-      </c>
-      <c r="K88" s="2">
+      <c r="I88" s="1">
+        <v>180</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3437,34 +3439,34 @@
       <c r="A89">
         <v>90</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>46722</v>
       </c>
       <c r="C89">
         <v>30</v>
       </c>
-      <c r="D89" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E89" s="2">
+      <c r="D89" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E89" s="1">
         <v>980.30826983030533</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="1">
         <v>1443.6917301696947</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89" s="1">
         <v>143388.86474713916</v>
       </c>
       <c r="H89">
         <v>200000</v>
       </c>
-      <c r="I89" s="2">
-        <v>180</v>
-      </c>
-      <c r="J89" s="2">
-        <v>1</v>
-      </c>
-      <c r="K89" s="2">
+      <c r="I89" s="1">
+        <v>180</v>
+      </c>
+      <c r="J89" s="1">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3472,34 +3474,34 @@
       <c r="A90">
         <v>91</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>46753</v>
       </c>
       <c r="C90">
         <v>31</v>
       </c>
-      <c r="D90" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E90" s="2">
+      <c r="D90" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E90" s="1">
         <v>942.31506427956219</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="1">
         <v>1481.6849357204378</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="1">
         <v>142446.54968285959</v>
       </c>
       <c r="H90">
         <v>200000</v>
       </c>
-      <c r="I90" s="2">
-        <v>180</v>
-      </c>
-      <c r="J90" s="2">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2">
+      <c r="I90" s="1">
+        <v>180</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3507,34 +3509,34 @@
       <c r="A91">
         <v>92</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <v>46784</v>
       </c>
       <c r="C91">
         <v>31</v>
       </c>
-      <c r="D91" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E91" s="2">
+      <c r="D91" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E91" s="1">
         <v>952.05231994378414</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="1">
         <v>1471.9476800562159</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="1">
         <v>141494.4973629158</v>
       </c>
       <c r="H91">
         <v>200000</v>
       </c>
-      <c r="I91" s="2">
-        <v>180</v>
-      </c>
-      <c r="J91" s="2">
-        <v>1</v>
-      </c>
-      <c r="K91" s="2">
+      <c r="I91" s="1">
+        <v>180</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1</v>
+      </c>
+      <c r="K91" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3542,34 +3544,34 @@
       <c r="A92">
         <v>93</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>46813</v>
       </c>
       <c r="C92">
         <v>29</v>
       </c>
-      <c r="D92" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E92" s="2">
+      <c r="D92" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E92" s="1">
         <v>1056.2198588251472</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <v>1367.7801411748528</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="1">
         <v>140438.27750409066</v>
       </c>
       <c r="H92">
         <v>200000</v>
       </c>
-      <c r="I92" s="2">
-        <v>180</v>
-      </c>
-      <c r="J92" s="2">
-        <v>1</v>
-      </c>
-      <c r="K92" s="2">
+      <c r="I92" s="1">
+        <v>180</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1</v>
+      </c>
+      <c r="K92" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3577,34 +3579,34 @@
       <c r="A93">
         <v>94</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>46844</v>
       </c>
       <c r="C93">
         <v>31</v>
       </c>
-      <c r="D93" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E93" s="2">
+      <c r="D93" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E93" s="1">
         <v>972.80446579106342</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="1">
         <v>1451.1955342089366</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="1">
         <v>139465.47303829959</v>
       </c>
       <c r="H93">
         <v>200000</v>
       </c>
-      <c r="I93" s="2">
-        <v>180</v>
-      </c>
-      <c r="J93" s="2">
-        <v>1</v>
-      </c>
-      <c r="K93" s="2">
+      <c r="I93" s="1">
+        <v>180</v>
+      </c>
+      <c r="J93" s="1">
+        <v>1</v>
+      </c>
+      <c r="K93" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3612,34 +3614,34 @@
       <c r="A94">
         <v>95</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>46874</v>
       </c>
       <c r="C94">
         <v>30</v>
       </c>
-      <c r="D94" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E94" s="2">
+      <c r="D94" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E94" s="1">
         <v>1029.3452696170041</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <v>1394.6547303829959</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="1">
         <v>138436.12776868258</v>
       </c>
       <c r="H94">
         <v>200000</v>
       </c>
-      <c r="I94" s="2">
-        <v>180</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1</v>
-      </c>
-      <c r="K94" s="2">
+      <c r="I94" s="1">
+        <v>180</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3647,34 +3649,34 @@
       <c r="A95">
         <v>96</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <v>46905</v>
       </c>
       <c r="C95">
         <v>31</v>
       </c>
-      <c r="D95" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="D95" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E95" s="1">
         <v>993.49334639027984</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="1">
         <v>1430.5066536097202</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="1">
         <v>137442.63442229229</v>
       </c>
       <c r="H95">
         <v>200000</v>
       </c>
-      <c r="I95" s="2">
-        <v>180</v>
-      </c>
-      <c r="J95" s="2">
-        <v>1</v>
-      </c>
-      <c r="K95" s="2">
+      <c r="I95" s="1">
+        <v>180</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3682,34 +3684,34 @@
       <c r="A96">
         <v>97</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>46935</v>
       </c>
       <c r="C96">
         <v>30</v>
       </c>
-      <c r="D96" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E96" s="2">
+      <c r="D96" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E96" s="1">
         <v>1049.5736557770772</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="1">
         <v>1374.4263442229228</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="1">
         <v>136393.06076651521</v>
       </c>
       <c r="H96">
         <v>200000</v>
       </c>
-      <c r="I96" s="2">
-        <v>180</v>
-      </c>
-      <c r="J96" s="2">
-        <v>1</v>
-      </c>
-      <c r="K96" s="2">
+      <c r="I96" s="1">
+        <v>180</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3717,34 +3719,34 @@
       <c r="A97">
         <v>98</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>46966</v>
       </c>
       <c r="C97">
         <v>31</v>
       </c>
-      <c r="D97" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E97" s="2">
+      <c r="D97" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E97" s="1">
         <v>1014.6050387460095</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="1">
         <v>1409.3949612539905</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="1">
         <v>135378.45572776921</v>
       </c>
       <c r="H97">
         <v>200000</v>
       </c>
-      <c r="I97" s="2">
-        <v>180</v>
-      </c>
-      <c r="J97" s="2">
-        <v>1</v>
-      </c>
-      <c r="K97" s="2">
+      <c r="I97" s="1">
+        <v>180</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3752,34 +3754,34 @@
       <c r="A98">
         <v>99</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>46997</v>
       </c>
       <c r="C98">
         <v>31</v>
       </c>
-      <c r="D98" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="D98" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E98" s="1">
         <v>1025.0892908130515</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="1">
         <v>1398.9107091869485</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="1">
         <v>134353.36643695616</v>
       </c>
       <c r="H98">
         <v>200000</v>
       </c>
-      <c r="I98" s="2">
-        <v>180</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1</v>
-      </c>
-      <c r="K98" s="2">
+      <c r="I98" s="1">
+        <v>180</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3787,34 +3789,34 @@
       <c r="A99">
         <v>100</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <v>47027</v>
       </c>
       <c r="C99">
         <v>30</v>
       </c>
-      <c r="D99" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E99" s="2">
+      <c r="D99" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E99" s="1">
         <v>1080.4663356304384</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="1">
         <v>1343.5336643695616</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="1">
         <v>133272.90010132571</v>
       </c>
       <c r="H99">
         <v>200000</v>
       </c>
-      <c r="I99" s="2">
-        <v>180</v>
-      </c>
-      <c r="J99" s="2">
-        <v>1</v>
-      </c>
-      <c r="K99" s="2">
+      <c r="I99" s="1">
+        <v>180</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3822,34 +3824,34 @@
       <c r="A100">
         <v>101</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <v>47058</v>
       </c>
       <c r="C100">
         <v>31</v>
       </c>
-      <c r="D100" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E100" s="2">
+      <c r="D100" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E100" s="1">
         <v>1046.8466989529675</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="1">
         <v>1377.1533010470325</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="1">
         <v>132226.05340237275</v>
       </c>
       <c r="H100">
         <v>200000</v>
       </c>
-      <c r="I100" s="2">
-        <v>180</v>
-      </c>
-      <c r="J100" s="2">
-        <v>1</v>
-      </c>
-      <c r="K100" s="2">
+      <c r="I100" s="1">
+        <v>180</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3857,34 +3859,34 @@
       <c r="A101">
         <v>102</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <v>47088</v>
       </c>
       <c r="C101">
         <v>30</v>
       </c>
-      <c r="D101" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E101" s="2">
+      <c r="D101" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E101" s="1">
         <v>1101.7394659762726</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="1">
         <v>1322.2605340237274</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="1">
         <v>131124.31393639647</v>
       </c>
       <c r="H101">
         <v>200000</v>
       </c>
-      <c r="I101" s="2">
-        <v>180</v>
-      </c>
-      <c r="J101" s="2">
-        <v>1</v>
-      </c>
-      <c r="K101" s="2">
+      <c r="I101" s="1">
+        <v>180</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1</v>
+      </c>
+      <c r="K101" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3892,34 +3894,34 @@
       <c r="A102">
         <v>103</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <v>47119</v>
       </c>
       <c r="C102">
         <v>31</v>
       </c>
-      <c r="D102" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E102" s="2">
+      <c r="D102" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E102" s="1">
         <v>1069.0487559905698</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="1">
         <v>1354.9512440094302</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="1">
         <v>130055.2651804059</v>
       </c>
       <c r="H102">
         <v>200000</v>
       </c>
-      <c r="I102" s="2">
-        <v>180</v>
-      </c>
-      <c r="J102" s="2">
-        <v>1</v>
-      </c>
-      <c r="K102" s="2">
+      <c r="I102" s="1">
+        <v>180</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3927,34 +3929,34 @@
       <c r="A103">
         <v>104</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <v>47150</v>
       </c>
       <c r="C103">
         <v>31</v>
       </c>
-      <c r="D103" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E103" s="2">
+      <c r="D103" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E103" s="1">
         <v>1080.0955931358058</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="1">
         <v>1343.9044068641942</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="1">
         <v>128975.16958727009</v>
       </c>
       <c r="H103">
         <v>200000</v>
       </c>
-      <c r="I103" s="2">
-        <v>180</v>
-      </c>
-      <c r="J103" s="2">
-        <v>1</v>
-      </c>
-      <c r="K103" s="2">
+      <c r="I103" s="1">
+        <v>180</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3962,34 +3964,34 @@
       <c r="A104">
         <v>105</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <v>47178</v>
       </c>
       <c r="C104">
         <v>28</v>
       </c>
-      <c r="D104" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E104" s="2">
+      <c r="D104" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E104" s="1">
         <v>1220.2317505188125</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="1">
         <v>1203.7682494811875</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="1">
         <v>127754.93783675128</v>
       </c>
       <c r="H104">
         <v>200000</v>
       </c>
-      <c r="I104" s="2">
-        <v>180</v>
-      </c>
-      <c r="J104" s="2">
-        <v>1</v>
-      </c>
-      <c r="K104" s="2">
+      <c r="I104" s="1">
+        <v>180</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1">
         <v>107</v>
       </c>
     </row>
@@ -3997,34 +3999,34 @@
       <c r="A105">
         <v>106</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <v>47209</v>
       </c>
       <c r="C105">
         <v>31</v>
       </c>
-      <c r="D105" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E105" s="2">
+      <c r="D105" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E105" s="1">
         <v>1103.8656423535701</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="1">
         <v>1320.1343576464299</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="1">
         <v>126651.07219439771</v>
       </c>
       <c r="H105">
         <v>200000</v>
       </c>
-      <c r="I105" s="2">
-        <v>180</v>
-      </c>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
-      <c r="K105" s="2">
+      <c r="I105" s="1">
+        <v>180</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4032,34 +4034,34 @@
       <c r="A106">
         <v>107</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <v>47239</v>
       </c>
       <c r="C106">
         <v>30</v>
       </c>
-      <c r="D106" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E106" s="2">
+      <c r="D106" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E106" s="1">
         <v>1157.4892780560231</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="1">
         <v>1266.5107219439769</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="1">
         <v>125493.58291634169</v>
       </c>
       <c r="H106">
         <v>200000</v>
       </c>
-      <c r="I106" s="2">
-        <v>180</v>
-      </c>
-      <c r="J106" s="2">
-        <v>1</v>
-      </c>
-      <c r="K106" s="2">
+      <c r="I106" s="1">
+        <v>180</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4067,34 +4069,34 @@
       <c r="A107">
         <v>108</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>47270</v>
       </c>
       <c r="C107">
         <v>31</v>
       </c>
-      <c r="D107" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E107" s="2">
+      <c r="D107" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E107" s="1">
         <v>1127.232976531136</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="1">
         <v>1296.767023468864</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="1">
         <v>124366.34993981056</v>
       </c>
       <c r="H107">
         <v>200000</v>
       </c>
-      <c r="I107" s="2">
-        <v>180</v>
-      </c>
-      <c r="J107" s="2">
-        <v>1</v>
-      </c>
-      <c r="K107" s="2">
+      <c r="I107" s="1">
+        <v>180</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1</v>
+      </c>
+      <c r="K107" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4102,34 +4104,34 @@
       <c r="A108">
         <v>109</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <v>47300</v>
       </c>
       <c r="C108">
         <v>30</v>
       </c>
-      <c r="D108" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="D108" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E108" s="1">
         <v>1180.3365006018944</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="1">
         <v>1243.6634993981056</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="1">
         <v>123186.01343920866</v>
       </c>
       <c r="H108">
         <v>200000</v>
       </c>
-      <c r="I108" s="2">
-        <v>180</v>
-      </c>
-      <c r="J108" s="2">
-        <v>1</v>
-      </c>
-      <c r="K108" s="2">
+      <c r="I108" s="1">
+        <v>180</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4137,34 +4139,34 @@
       <c r="A109">
         <v>110</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <v>47331</v>
       </c>
       <c r="C109">
         <v>31</v>
       </c>
-      <c r="D109" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="D109" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E109" s="1">
         <v>1151.0778611281773</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="1">
         <v>1272.9221388718227</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="1">
         <v>122034.93557808049</v>
       </c>
       <c r="H109">
         <v>200000</v>
       </c>
-      <c r="I109" s="2">
-        <v>180</v>
-      </c>
-      <c r="J109" s="2">
-        <v>1</v>
-      </c>
-      <c r="K109" s="2">
+      <c r="I109" s="1">
+        <v>180</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4172,34 +4174,34 @@
       <c r="A110">
         <v>111</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <v>47362</v>
       </c>
       <c r="C110">
         <v>31</v>
       </c>
-      <c r="D110" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E110" s="2">
+      <c r="D110" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E110" s="1">
         <v>1162.9723323598348</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="1">
         <v>1261.0276676401652</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="1">
         <v>120871.96324572066</v>
       </c>
       <c r="H110">
         <v>200000</v>
       </c>
-      <c r="I110" s="2">
-        <v>180</v>
-      </c>
-      <c r="J110" s="2">
-        <v>1</v>
-      </c>
-      <c r="K110" s="2">
+      <c r="I110" s="1">
+        <v>180</v>
+      </c>
+      <c r="J110" s="1">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4207,34 +4209,34 @@
       <c r="A111">
         <v>112</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <v>47392</v>
       </c>
       <c r="C111">
         <v>30</v>
       </c>
-      <c r="D111" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="D111" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E111" s="1">
         <v>1215.2803675427933</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="1">
         <v>1208.7196324572067</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="1">
         <v>119656.68287817786</v>
       </c>
       <c r="H111">
         <v>200000</v>
       </c>
-      <c r="I111" s="2">
-        <v>180</v>
-      </c>
-      <c r="J111" s="2">
-        <v>1</v>
-      </c>
-      <c r="K111" s="2">
+      <c r="I111" s="1">
+        <v>180</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1</v>
+      </c>
+      <c r="K111" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4242,34 +4244,34 @@
       <c r="A112">
         <v>113</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <v>47423</v>
       </c>
       <c r="C112">
         <v>31</v>
       </c>
-      <c r="D112" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E112" s="2">
+      <c r="D112" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E112" s="1">
         <v>1187.5476102588289</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="1">
         <v>1236.4523897411711</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="1">
         <v>118469.13526791903</v>
       </c>
       <c r="H112">
         <v>200000</v>
       </c>
-      <c r="I112" s="2">
-        <v>180</v>
-      </c>
-      <c r="J112" s="2">
-        <v>1</v>
-      </c>
-      <c r="K112" s="2">
+      <c r="I112" s="1">
+        <v>180</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4277,34 +4279,34 @@
       <c r="A113">
         <v>114</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <v>47453</v>
       </c>
       <c r="C113">
         <v>30</v>
       </c>
-      <c r="D113" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E113" s="2">
+      <c r="D113" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E113" s="1">
         <v>1239.3086473208095</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="1">
         <v>1184.6913526791905</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="1">
         <v>117229.82662059822</v>
       </c>
       <c r="H113">
         <v>200000</v>
       </c>
-      <c r="I113" s="2">
-        <v>180</v>
-      </c>
-      <c r="J113" s="2">
-        <v>1</v>
-      </c>
-      <c r="K113" s="2">
+      <c r="I113" s="1">
+        <v>180</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1</v>
+      </c>
+      <c r="K113" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4312,34 +4314,34 @@
       <c r="A114">
         <v>115</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <v>47484</v>
       </c>
       <c r="C114">
         <v>31</v>
       </c>
-      <c r="D114" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="D114" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E114" s="1">
         <v>1212.625124920485</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="1">
         <v>1211.374875079515</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114" s="1">
         <v>116017.20149567774</v>
       </c>
       <c r="H114">
         <v>200000</v>
       </c>
-      <c r="I114" s="2">
-        <v>180</v>
-      </c>
-      <c r="J114" s="2">
-        <v>1</v>
-      </c>
-      <c r="K114" s="2">
+      <c r="I114" s="1">
+        <v>180</v>
+      </c>
+      <c r="J114" s="1">
+        <v>1</v>
+      </c>
+      <c r="K114" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4347,34 +4349,34 @@
       <c r="A115">
         <v>116</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <v>47515</v>
       </c>
       <c r="C115">
         <v>31</v>
       </c>
-      <c r="D115" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E115" s="2">
+      <c r="D115" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E115" s="1">
         <v>1225.1555845446633</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="1">
         <v>1198.8444154553367</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115" s="1">
         <v>114792.04591113309</v>
       </c>
       <c r="H115">
         <v>200000</v>
       </c>
-      <c r="I115" s="2">
-        <v>180</v>
-      </c>
-      <c r="J115" s="2">
-        <v>1</v>
-      </c>
-      <c r="K115" s="2">
+      <c r="I115" s="1">
+        <v>180</v>
+      </c>
+      <c r="J115" s="1">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4382,34 +4384,34 @@
       <c r="A116">
         <v>117</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <v>47543</v>
       </c>
       <c r="C116">
         <v>28</v>
       </c>
-      <c r="D116" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E116" s="2">
+      <c r="D116" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E116" s="1">
         <v>1352.6075714960912</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="1">
         <v>1071.3924285039088</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116" s="1">
         <v>113439.438339637</v>
       </c>
       <c r="H116">
         <v>200000</v>
       </c>
-      <c r="I116" s="2">
-        <v>180</v>
-      </c>
-      <c r="J116" s="2">
-        <v>1</v>
-      </c>
-      <c r="K116" s="2">
+      <c r="I116" s="1">
+        <v>180</v>
+      </c>
+      <c r="J116" s="1">
+        <v>1</v>
+      </c>
+      <c r="K116" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4417,34 +4419,34 @@
       <c r="A117">
         <v>118</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="2">
         <v>47574</v>
       </c>
       <c r="C117">
         <v>31</v>
       </c>
-      <c r="D117" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="D117" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E117" s="1">
         <v>1251.7924704904176</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="1">
         <v>1172.2075295095824</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117" s="1">
         <v>112187.64586914658</v>
       </c>
       <c r="H117">
         <v>200000</v>
       </c>
-      <c r="I117" s="2">
-        <v>180</v>
-      </c>
-      <c r="J117" s="2">
-        <v>1</v>
-      </c>
-      <c r="K117" s="2">
+      <c r="I117" s="1">
+        <v>180</v>
+      </c>
+      <c r="J117" s="1">
+        <v>1</v>
+      </c>
+      <c r="K117" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4452,34 +4454,34 @@
       <c r="A118">
         <v>119</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="2">
         <v>47604</v>
       </c>
       <c r="C118">
         <v>30</v>
       </c>
-      <c r="D118" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E118" s="2">
+      <c r="D118" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E118" s="1">
         <v>1302.1235413085342</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="1">
         <v>1121.8764586914658</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118" s="1">
         <v>110885.52232783804</v>
       </c>
       <c r="H118">
         <v>200000</v>
       </c>
-      <c r="I118" s="2">
-        <v>180</v>
-      </c>
-      <c r="J118" s="2">
-        <v>1</v>
-      </c>
-      <c r="K118" s="2">
+      <c r="I118" s="1">
+        <v>180</v>
+      </c>
+      <c r="J118" s="1">
+        <v>1</v>
+      </c>
+      <c r="K118" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4487,34 +4489,34 @@
       <c r="A119">
         <v>120</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="2">
         <v>47635</v>
       </c>
       <c r="C119">
         <v>31</v>
       </c>
-      <c r="D119" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E119" s="2">
+      <c r="D119" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E119" s="1">
         <v>1278.1829359456735</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="1">
         <v>1145.8170640543265</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119" s="1">
         <v>109607.33939189237</v>
       </c>
       <c r="H119">
         <v>200000</v>
       </c>
-      <c r="I119" s="2">
-        <v>180</v>
-      </c>
-      <c r="J119" s="2">
-        <v>1</v>
-      </c>
-      <c r="K119" s="2">
+      <c r="I119" s="1">
+        <v>180</v>
+      </c>
+      <c r="J119" s="1">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4522,34 +4524,34 @@
       <c r="A120">
         <v>121</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="2">
         <v>47665</v>
       </c>
       <c r="C120">
         <v>30</v>
       </c>
-      <c r="D120" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E120" s="2">
+      <c r="D120" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E120" s="1">
         <v>1327.9266060810762</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="1">
         <v>1096.0733939189238</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120" s="1">
         <v>108279.41278581129</v>
       </c>
       <c r="H120">
         <v>200000</v>
       </c>
-      <c r="I120" s="2">
-        <v>180</v>
-      </c>
-      <c r="J120" s="2">
-        <v>1</v>
-      </c>
-      <c r="K120" s="2">
+      <c r="I120" s="1">
+        <v>180</v>
+      </c>
+      <c r="J120" s="1">
+        <v>1</v>
+      </c>
+      <c r="K120" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4557,34 +4559,34 @@
       <c r="A121">
         <v>122</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <v>47696</v>
       </c>
       <c r="C121">
         <v>31</v>
       </c>
-      <c r="D121" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E121" s="2">
+      <c r="D121" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E121" s="1">
         <v>1305.1127345466168</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="1">
         <v>1118.8872654533832</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121" s="1">
         <v>106974.30005126467</v>
       </c>
       <c r="H121">
         <v>200000</v>
       </c>
-      <c r="I121" s="2">
-        <v>180</v>
-      </c>
-      <c r="J121" s="2">
-        <v>1</v>
-      </c>
-      <c r="K121" s="2">
+      <c r="I121" s="1">
+        <v>180</v>
+      </c>
+      <c r="J121" s="1">
+        <v>1</v>
+      </c>
+      <c r="K121" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4592,34 +4594,34 @@
       <c r="A122">
         <v>123</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <v>47727</v>
       </c>
       <c r="C122">
         <v>31</v>
       </c>
-      <c r="D122" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E122" s="2">
+      <c r="D122" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E122" s="1">
         <v>1318.598899470265</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="1">
         <v>1105.401100529735</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="1">
         <v>105655.7011517944</v>
       </c>
       <c r="H122">
         <v>200000</v>
       </c>
-      <c r="I122" s="2">
-        <v>180</v>
-      </c>
-      <c r="J122" s="2">
-        <v>1</v>
-      </c>
-      <c r="K122" s="2">
+      <c r="I122" s="1">
+        <v>180</v>
+      </c>
+      <c r="J122" s="1">
+        <v>1</v>
+      </c>
+      <c r="K122" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4627,34 +4629,34 @@
       <c r="A123">
         <v>124</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <v>47757</v>
       </c>
       <c r="C123">
         <v>30</v>
       </c>
-      <c r="D123" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E123" s="2">
+      <c r="D123" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E123" s="1">
         <v>1367.4429884820559</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="1">
         <v>1056.5570115179441</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123" s="1">
         <v>104288.25816331235</v>
       </c>
       <c r="H123">
         <v>200000</v>
       </c>
-      <c r="I123" s="2">
-        <v>180</v>
-      </c>
-      <c r="J123" s="2">
-        <v>1</v>
-      </c>
-      <c r="K123" s="2">
+      <c r="I123" s="1">
+        <v>180</v>
+      </c>
+      <c r="J123" s="1">
+        <v>1</v>
+      </c>
+      <c r="K123" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4662,34 +4664,34 @@
       <c r="A124">
         <v>125</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <v>47788</v>
       </c>
       <c r="C124">
         <v>31</v>
       </c>
-      <c r="D124" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E124" s="2">
+      <c r="D124" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E124" s="1">
         <v>1346.3546656457725</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="1">
         <v>1077.6453343542275</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124" s="1">
         <v>102941.90349766657</v>
       </c>
       <c r="H124">
         <v>200000</v>
       </c>
-      <c r="I124" s="2">
-        <v>180</v>
-      </c>
-      <c r="J124" s="2">
-        <v>1</v>
-      </c>
-      <c r="K124" s="2">
+      <c r="I124" s="1">
+        <v>180</v>
+      </c>
+      <c r="J124" s="1">
+        <v>1</v>
+      </c>
+      <c r="K124" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4697,34 +4699,34 @@
       <c r="A125">
         <v>126</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="2">
         <v>47818</v>
       </c>
       <c r="C125">
         <v>30</v>
       </c>
-      <c r="D125" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E125" s="2">
+      <c r="D125" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E125" s="1">
         <v>1394.5809650233341</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="1">
         <v>1029.4190349766659</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125" s="1">
         <v>101547.32253264324</v>
       </c>
       <c r="H125">
         <v>200000</v>
       </c>
-      <c r="I125" s="2">
-        <v>180</v>
-      </c>
-      <c r="J125" s="2">
-        <v>1</v>
-      </c>
-      <c r="K125" s="2">
+      <c r="I125" s="1">
+        <v>180</v>
+      </c>
+      <c r="J125" s="1">
+        <v>1</v>
+      </c>
+      <c r="K125" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4732,34 +4734,34 @@
       <c r="A126">
         <v>127</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="2">
         <v>47849</v>
       </c>
       <c r="C126">
         <v>31</v>
       </c>
-      <c r="D126" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E126" s="2">
+      <c r="D126" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E126" s="1">
         <v>1374.6776671626867</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="1">
         <v>1049.3223328373133</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G126" s="1">
         <v>100172.64486548056</v>
       </c>
       <c r="H126">
         <v>200000</v>
       </c>
-      <c r="I126" s="2">
-        <v>180</v>
-      </c>
-      <c r="J126" s="2">
-        <v>1</v>
-      </c>
-      <c r="K126" s="2">
+      <c r="I126" s="1">
+        <v>180</v>
+      </c>
+      <c r="J126" s="1">
+        <v>1</v>
+      </c>
+      <c r="K126" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4767,34 +4769,34 @@
       <c r="A127">
         <v>128</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="2">
         <v>47880</v>
       </c>
       <c r="C127">
         <v>31</v>
       </c>
-      <c r="D127" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E127" s="2">
+      <c r="D127" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E127" s="1">
         <v>1388.8826697233674</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="1">
         <v>1035.1173302766326</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G127" s="1">
         <v>98783.762195757183</v>
       </c>
       <c r="H127">
         <v>200000</v>
       </c>
-      <c r="I127" s="2">
-        <v>180</v>
-      </c>
-      <c r="J127" s="2">
-        <v>1</v>
-      </c>
-      <c r="K127" s="2">
+      <c r="I127" s="1">
+        <v>180</v>
+      </c>
+      <c r="J127" s="1">
+        <v>1</v>
+      </c>
+      <c r="K127" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4802,34 +4804,34 @@
       <c r="A128">
         <v>129</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="2">
         <v>47908</v>
       </c>
       <c r="C128">
         <v>28</v>
       </c>
-      <c r="D128" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E128" s="2">
+      <c r="D128" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E128" s="1">
         <v>1502.0182195062664</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="1">
         <v>921.98178049373359</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G128" s="1">
         <v>97281.743976250917</v>
       </c>
       <c r="H128">
         <v>200000</v>
       </c>
-      <c r="I128" s="2">
-        <v>180</v>
-      </c>
-      <c r="J128" s="2">
-        <v>1</v>
-      </c>
-      <c r="K128" s="2">
+      <c r="I128" s="1">
+        <v>180</v>
+      </c>
+      <c r="J128" s="1">
+        <v>1</v>
+      </c>
+      <c r="K128" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4837,34 +4839,34 @@
       <c r="A129">
         <v>130</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="2">
         <v>47939</v>
       </c>
       <c r="C129">
         <v>31</v>
       </c>
-      <c r="D129" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E129" s="2">
+      <c r="D129" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E129" s="1">
         <v>1418.7553122454074</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="1">
         <v>1005.2446877545927</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G129" s="1">
         <v>95862.988664005505</v>
       </c>
       <c r="H129">
         <v>200000</v>
       </c>
-      <c r="I129" s="2">
-        <v>180</v>
-      </c>
-      <c r="J129" s="2">
-        <v>1</v>
-      </c>
-      <c r="K129" s="2">
+      <c r="I129" s="1">
+        <v>180</v>
+      </c>
+      <c r="J129" s="1">
+        <v>1</v>
+      </c>
+      <c r="K129" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4872,34 +4874,34 @@
       <c r="A130">
         <v>131</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="2">
         <v>47969</v>
       </c>
       <c r="C130">
         <v>30</v>
       </c>
-      <c r="D130" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E130" s="2">
+      <c r="D130" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E130" s="1">
         <v>1465.3701133599452</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="1">
         <v>958.62988664005491</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130" s="1">
         <v>94397.618550645566</v>
       </c>
       <c r="H130">
         <v>200000</v>
       </c>
-      <c r="I130" s="2">
-        <v>180</v>
-      </c>
-      <c r="J130" s="2">
-        <v>1</v>
-      </c>
-      <c r="K130" s="2">
+      <c r="I130" s="1">
+        <v>180</v>
+      </c>
+      <c r="J130" s="1">
+        <v>1</v>
+      </c>
+      <c r="K130" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4907,34 +4909,34 @@
       <c r="A131">
         <v>132</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="2">
         <v>48000</v>
       </c>
       <c r="C131">
         <v>31</v>
       </c>
-      <c r="D131" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E131" s="2">
+      <c r="D131" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E131" s="1">
         <v>1448.5579416433293</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="1">
         <v>975.44205835667083</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131" s="1">
         <v>92949.060609002234</v>
       </c>
       <c r="H131">
         <v>200000</v>
       </c>
-      <c r="I131" s="2">
-        <v>180</v>
-      </c>
-      <c r="J131" s="2">
-        <v>1</v>
-      </c>
-      <c r="K131" s="2">
+      <c r="I131" s="1">
+        <v>180</v>
+      </c>
+      <c r="J131" s="1">
+        <v>1</v>
+      </c>
+      <c r="K131" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4942,34 +4944,34 @@
       <c r="A132">
         <v>133</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="2">
         <v>48030</v>
       </c>
       <c r="C132">
         <v>30</v>
       </c>
-      <c r="D132" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E132" s="2">
+      <c r="D132" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E132" s="1">
         <v>1494.5093939099779</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="1">
         <v>929.4906060900222</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132" s="1">
         <v>91454.551215092259</v>
       </c>
       <c r="H132">
         <v>200000</v>
       </c>
-      <c r="I132" s="2">
-        <v>180</v>
-      </c>
-      <c r="J132" s="2">
-        <v>1</v>
-      </c>
-      <c r="K132" s="2">
+      <c r="I132" s="1">
+        <v>180</v>
+      </c>
+      <c r="J132" s="1">
+        <v>1</v>
+      </c>
+      <c r="K132" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4977,34 +4979,34 @@
       <c r="A133">
         <v>134</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="2">
         <v>48061</v>
       </c>
       <c r="C133">
         <v>31</v>
       </c>
-      <c r="D133" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E133" s="2">
+      <c r="D133" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E133" s="1">
         <v>1478.9696374440468</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="1">
         <v>945.03036255595327</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133" s="1">
         <v>89975.581577648205</v>
       </c>
       <c r="H133">
         <v>200000</v>
       </c>
-      <c r="I133" s="2">
-        <v>180</v>
-      </c>
-      <c r="J133" s="2">
-        <v>1</v>
-      </c>
-      <c r="K133" s="2">
+      <c r="I133" s="1">
+        <v>180</v>
+      </c>
+      <c r="J133" s="1">
+        <v>1</v>
+      </c>
+      <c r="K133" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5012,34 +5014,34 @@
       <c r="A134">
         <v>135</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="2">
         <v>48092</v>
       </c>
       <c r="C134">
         <v>31</v>
       </c>
-      <c r="D134" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E134" s="2">
+      <c r="D134" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E134" s="1">
         <v>1494.2523236976353</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="1">
         <v>929.74767630236465</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134" s="1">
         <v>88481.329253950564</v>
       </c>
       <c r="H134">
         <v>200000</v>
       </c>
-      <c r="I134" s="2">
-        <v>180</v>
-      </c>
-      <c r="J134" s="2">
-        <v>1</v>
-      </c>
-      <c r="K134" s="2">
+      <c r="I134" s="1">
+        <v>180</v>
+      </c>
+      <c r="J134" s="1">
+        <v>1</v>
+      </c>
+      <c r="K134" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5047,34 +5049,34 @@
       <c r="A135">
         <v>136</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="2">
         <v>48122</v>
       </c>
       <c r="C135">
         <v>30</v>
       </c>
-      <c r="D135" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E135" s="2">
+      <c r="D135" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E135" s="1">
         <v>1539.1867074604943</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="1">
         <v>884.8132925395056</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135" s="1">
         <v>86942.142546490068</v>
       </c>
       <c r="H135">
         <v>200000</v>
       </c>
-      <c r="I135" s="2">
-        <v>180</v>
-      </c>
-      <c r="J135" s="2">
-        <v>1</v>
-      </c>
-      <c r="K135" s="2">
+      <c r="I135" s="1">
+        <v>180</v>
+      </c>
+      <c r="J135" s="1">
+        <v>1</v>
+      </c>
+      <c r="K135" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5082,34 +5084,34 @@
       <c r="A136">
         <v>137</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="2">
         <v>48153</v>
       </c>
       <c r="C136">
         <v>31</v>
       </c>
-      <c r="D136" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E136" s="2">
+      <c r="D136" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E136" s="1">
         <v>1525.5978603529361</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="1">
         <v>898.4021396470639</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136" s="1">
         <v>85416.544686137131</v>
       </c>
       <c r="H136">
         <v>200000</v>
       </c>
-      <c r="I136" s="2">
-        <v>180</v>
-      </c>
-      <c r="J136" s="2">
-        <v>1</v>
-      </c>
-      <c r="K136" s="2">
+      <c r="I136" s="1">
+        <v>180</v>
+      </c>
+      <c r="J136" s="1">
+        <v>1</v>
+      </c>
+      <c r="K136" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5117,34 +5119,34 @@
       <c r="A137">
         <v>138</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="2">
         <v>48183</v>
       </c>
       <c r="C137">
         <v>30</v>
       </c>
-      <c r="D137" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E137" s="2">
+      <c r="D137" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E137" s="1">
         <v>1569.8345531386285</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="1">
         <v>854.16544686137138</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137" s="1">
         <v>83846.710132998502</v>
       </c>
       <c r="H137">
         <v>200000</v>
       </c>
-      <c r="I137" s="2">
-        <v>180</v>
-      </c>
-      <c r="J137" s="2">
-        <v>1</v>
-      </c>
-      <c r="K137" s="2">
+      <c r="I137" s="1">
+        <v>180</v>
+      </c>
+      <c r="J137" s="1">
+        <v>1</v>
+      </c>
+      <c r="K137" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5152,34 +5154,34 @@
       <c r="A138">
         <v>139</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="2">
         <v>48214</v>
       </c>
       <c r="C138">
         <v>31</v>
       </c>
-      <c r="D138" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E138" s="2">
+      <c r="D138" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E138" s="1">
         <v>1557.5839952923488</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="1">
         <v>866.41600470765115</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G138" s="1">
         <v>82289.12613770616</v>
       </c>
       <c r="H138">
         <v>200000</v>
       </c>
-      <c r="I138" s="2">
-        <v>180</v>
-      </c>
-      <c r="J138" s="2">
-        <v>1</v>
-      </c>
-      <c r="K138" s="2">
+      <c r="I138" s="1">
+        <v>180</v>
+      </c>
+      <c r="J138" s="1">
+        <v>1</v>
+      </c>
+      <c r="K138" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5187,34 +5189,34 @@
       <c r="A139">
         <v>140</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="2">
         <v>48245</v>
       </c>
       <c r="C139">
         <v>31</v>
       </c>
-      <c r="D139" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E139" s="2">
+      <c r="D139" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E139" s="1">
         <v>1573.6790299103698</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="1">
         <v>850.32097008963024</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G139" s="1">
         <v>80715.447107795786</v>
       </c>
       <c r="H139">
         <v>200000</v>
       </c>
-      <c r="I139" s="2">
-        <v>180</v>
-      </c>
-      <c r="J139" s="2">
-        <v>1</v>
-      </c>
-      <c r="K139" s="2">
+      <c r="I139" s="1">
+        <v>180</v>
+      </c>
+      <c r="J139" s="1">
+        <v>1</v>
+      </c>
+      <c r="K139" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5222,34 +5224,34 @@
       <c r="A140">
         <v>141</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="2">
         <v>48274</v>
       </c>
       <c r="C140">
         <v>29</v>
       </c>
-      <c r="D140" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E140" s="2">
+      <c r="D140" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E140" s="1">
         <v>1643.7506779579739</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="1">
         <v>780.24932204202594</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G140" s="1">
         <v>79071.696429837815</v>
       </c>
       <c r="H140">
         <v>200000</v>
       </c>
-      <c r="I140" s="2">
-        <v>180</v>
-      </c>
-      <c r="J140" s="2">
-        <v>1</v>
-      </c>
-      <c r="K140" s="2">
+      <c r="I140" s="1">
+        <v>180</v>
+      </c>
+      <c r="J140" s="1">
+        <v>1</v>
+      </c>
+      <c r="K140" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5257,34 +5259,34 @@
       <c r="A141">
         <v>142</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="2">
         <v>48305</v>
       </c>
       <c r="C141">
         <v>31</v>
       </c>
-      <c r="D141" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E141" s="2">
+      <c r="D141" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E141" s="1">
         <v>1606.9258035583425</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="1">
         <v>817.07419644165736</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G141" s="1">
         <v>77464.770626279467</v>
       </c>
       <c r="H141">
         <v>200000</v>
       </c>
-      <c r="I141" s="2">
-        <v>180</v>
-      </c>
-      <c r="J141" s="2">
-        <v>1</v>
-      </c>
-      <c r="K141" s="2">
+      <c r="I141" s="1">
+        <v>180</v>
+      </c>
+      <c r="J141" s="1">
+        <v>1</v>
+      </c>
+      <c r="K141" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5292,34 +5294,34 @@
       <c r="A142">
         <v>143</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="2">
         <v>48335</v>
       </c>
       <c r="C142">
         <v>30</v>
       </c>
-      <c r="D142" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E142" s="2">
+      <c r="D142" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E142" s="1">
         <v>1649.3522937372054</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142" s="1">
         <v>774.6477062627946</v>
       </c>
-      <c r="G142" s="2">
+      <c r="G142" s="1">
         <v>75815.418332542264</v>
       </c>
       <c r="H142">
         <v>200000</v>
       </c>
-      <c r="I142" s="2">
-        <v>180</v>
-      </c>
-      <c r="J142" s="2">
-        <v>1</v>
-      </c>
-      <c r="K142" s="2">
+      <c r="I142" s="1">
+        <v>180</v>
+      </c>
+      <c r="J142" s="1">
+        <v>1</v>
+      </c>
+      <c r="K142" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5327,34 +5329,34 @@
       <c r="A143">
         <v>144</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="2">
         <v>48366</v>
       </c>
       <c r="C143">
         <v>31</v>
       </c>
-      <c r="D143" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E143" s="2">
+      <c r="D143" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E143" s="1">
         <v>1640.5740105637299</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="1">
         <v>783.42598943627013</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G143" s="1">
         <v>74174.84432197854</v>
       </c>
       <c r="H143">
         <v>200000</v>
       </c>
-      <c r="I143" s="2">
-        <v>180</v>
-      </c>
-      <c r="J143" s="2">
-        <v>1</v>
-      </c>
-      <c r="K143" s="2">
+      <c r="I143" s="1">
+        <v>180</v>
+      </c>
+      <c r="J143" s="1">
+        <v>1</v>
+      </c>
+      <c r="K143" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5362,34 +5364,34 @@
       <c r="A144">
         <v>145</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="2">
         <v>48396</v>
       </c>
       <c r="C144">
         <v>30</v>
       </c>
-      <c r="D144" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E144" s="2">
+      <c r="D144" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E144" s="1">
         <v>1682.2515567802145</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="1">
         <v>741.74844321978549</v>
       </c>
-      <c r="G144" s="2">
+      <c r="G144" s="1">
         <v>72492.592765198322</v>
       </c>
       <c r="H144">
         <v>200000</v>
       </c>
-      <c r="I144" s="2">
-        <v>180</v>
-      </c>
-      <c r="J144" s="2">
-        <v>1</v>
-      </c>
-      <c r="K144" s="2">
+      <c r="I144" s="1">
+        <v>180</v>
+      </c>
+      <c r="J144" s="1">
+        <v>1</v>
+      </c>
+      <c r="K144" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5397,34 +5399,34 @@
       <c r="A145">
         <v>146</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="2">
         <v>48427</v>
       </c>
       <c r="C145">
         <v>31</v>
       </c>
-      <c r="D145" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E145" s="2">
+      <c r="D145" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E145" s="1">
         <v>1674.9098747596174</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="1">
         <v>749.09012524038258</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G145" s="1">
         <v>70817.682890438708</v>
       </c>
       <c r="H145">
         <v>200000</v>
       </c>
-      <c r="I145" s="2">
-        <v>180</v>
-      </c>
-      <c r="J145" s="2">
-        <v>1</v>
-      </c>
-      <c r="K145" s="2">
+      <c r="I145" s="1">
+        <v>180</v>
+      </c>
+      <c r="J145" s="1">
+        <v>1</v>
+      </c>
+      <c r="K145" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5432,34 +5434,34 @@
       <c r="A146">
         <v>147</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="2">
         <v>48458</v>
       </c>
       <c r="C146">
         <v>31</v>
       </c>
-      <c r="D146" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E146" s="2">
+      <c r="D146" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E146" s="1">
         <v>1692.2172767988</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146" s="1">
         <v>731.78272320119993</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G146" s="1">
         <v>69125.465613639913</v>
       </c>
       <c r="H146">
         <v>200000</v>
       </c>
-      <c r="I146" s="2">
-        <v>180</v>
-      </c>
-      <c r="J146" s="2">
-        <v>1</v>
-      </c>
-      <c r="K146" s="2">
+      <c r="I146" s="1">
+        <v>180</v>
+      </c>
+      <c r="J146" s="1">
+        <v>1</v>
+      </c>
+      <c r="K146" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5467,34 +5469,34 @@
       <c r="A147">
         <v>148</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="2">
         <v>48488</v>
       </c>
       <c r="C147">
         <v>30</v>
       </c>
-      <c r="D147" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E147" s="2">
+      <c r="D147" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E147" s="1">
         <v>1732.7453438636007</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="1">
         <v>691.25465613639915</v>
       </c>
-      <c r="G147" s="2">
+      <c r="G147" s="1">
         <v>67392.720269776313</v>
       </c>
       <c r="H147">
         <v>200000</v>
       </c>
-      <c r="I147" s="2">
-        <v>180</v>
-      </c>
-      <c r="J147" s="2">
-        <v>1</v>
-      </c>
-      <c r="K147" s="2">
+      <c r="I147" s="1">
+        <v>180</v>
+      </c>
+      <c r="J147" s="1">
+        <v>1</v>
+      </c>
+      <c r="K147" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5502,34 +5504,34 @@
       <c r="A148">
         <v>149</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="2">
         <v>48519</v>
       </c>
       <c r="C148">
         <v>31</v>
       </c>
-      <c r="D148" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E148" s="2">
+      <c r="D148" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E148" s="1">
         <v>1727.6085572123116</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="1">
         <v>696.39144278768856</v>
       </c>
-      <c r="G148" s="2">
+      <c r="G148" s="1">
         <v>65665.111712564001</v>
       </c>
       <c r="H148">
         <v>200000</v>
       </c>
-      <c r="I148" s="2">
-        <v>180</v>
-      </c>
-      <c r="J148" s="2">
-        <v>1</v>
-      </c>
-      <c r="K148" s="2">
+      <c r="I148" s="1">
+        <v>180</v>
+      </c>
+      <c r="J148" s="1">
+        <v>1</v>
+      </c>
+      <c r="K148" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5537,34 +5539,34 @@
       <c r="A149">
         <v>150</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="2">
         <v>48549</v>
       </c>
       <c r="C149">
         <v>30</v>
       </c>
-      <c r="D149" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E149" s="2">
+      <c r="D149" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E149" s="1">
         <v>1767.34888287436</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="1">
         <v>656.65111712563998</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149" s="1">
         <v>63897.762829689644</v>
       </c>
       <c r="H149">
         <v>200000</v>
       </c>
-      <c r="I149" s="2">
-        <v>180</v>
-      </c>
-      <c r="J149" s="2">
-        <v>1</v>
-      </c>
-      <c r="K149" s="2">
+      <c r="I149" s="1">
+        <v>180</v>
+      </c>
+      <c r="J149" s="1">
+        <v>1</v>
+      </c>
+      <c r="K149" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5572,34 +5574,34 @@
       <c r="A150">
         <v>151</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="2">
         <v>48580</v>
       </c>
       <c r="C150">
         <v>31</v>
       </c>
-      <c r="D150" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E150" s="2">
+      <c r="D150" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E150" s="1">
         <v>1763.7231174265405</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="1">
         <v>660.27688257345949</v>
       </c>
-      <c r="G150" s="2">
+      <c r="G150" s="1">
         <v>62134.039712263104</v>
       </c>
       <c r="H150">
         <v>200000</v>
       </c>
-      <c r="I150" s="2">
-        <v>180</v>
-      </c>
-      <c r="J150" s="2">
-        <v>1</v>
-      </c>
-      <c r="K150" s="2">
+      <c r="I150" s="1">
+        <v>180</v>
+      </c>
+      <c r="J150" s="1">
+        <v>1</v>
+      </c>
+      <c r="K150" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5607,34 +5609,34 @@
       <c r="A151">
         <v>152</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="2">
         <v>48611</v>
       </c>
       <c r="C151">
         <v>31</v>
       </c>
-      <c r="D151" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E151" s="2">
+      <c r="D151" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E151" s="1">
         <v>1781.9482563066144</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="1">
         <v>642.05174369338545</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151" s="1">
         <v>60352.091455956492</v>
       </c>
       <c r="H151">
         <v>200000</v>
       </c>
-      <c r="I151" s="2">
-        <v>180</v>
-      </c>
-      <c r="J151" s="2">
-        <v>1</v>
-      </c>
-      <c r="K151" s="2">
+      <c r="I151" s="1">
+        <v>180</v>
+      </c>
+      <c r="J151" s="1">
+        <v>1</v>
+      </c>
+      <c r="K151" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5642,34 +5644,34 @@
       <c r="A152">
         <v>153</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="2">
         <v>48639</v>
       </c>
       <c r="C152">
         <v>28</v>
       </c>
-      <c r="D152" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E152" s="2">
+      <c r="D152" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E152" s="1">
         <v>1860.7138130777394</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152" s="1">
         <v>563.28618692226053</v>
       </c>
-      <c r="G152" s="2">
+      <c r="G152" s="1">
         <v>58491.377642878753</v>
       </c>
       <c r="H152">
         <v>200000</v>
       </c>
-      <c r="I152" s="2">
-        <v>180</v>
-      </c>
-      <c r="J152" s="2">
-        <v>1</v>
-      </c>
-      <c r="K152" s="2">
+      <c r="I152" s="1">
+        <v>180</v>
+      </c>
+      <c r="J152" s="1">
+        <v>1</v>
+      </c>
+      <c r="K152" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5677,34 +5679,34 @@
       <c r="A153">
         <v>154</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="2">
         <v>48670</v>
       </c>
       <c r="C153">
         <v>31</v>
       </c>
-      <c r="D153" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E153" s="2">
+      <c r="D153" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E153" s="1">
         <v>1819.5890976902529</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="1">
         <v>604.41090230974703</v>
       </c>
-      <c r="G153" s="2">
+      <c r="G153" s="1">
         <v>56671.788545188501</v>
       </c>
       <c r="H153">
         <v>200000</v>
       </c>
-      <c r="I153" s="2">
-        <v>180</v>
-      </c>
-      <c r="J153" s="2">
-        <v>1</v>
-      </c>
-      <c r="K153" s="2">
+      <c r="I153" s="1">
+        <v>180</v>
+      </c>
+      <c r="J153" s="1">
+        <v>1</v>
+      </c>
+      <c r="K153" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5712,34 +5714,34 @@
       <c r="A154">
         <v>155</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="2">
         <v>48700</v>
       </c>
       <c r="C154">
         <v>30</v>
       </c>
-      <c r="D154" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E154" s="2">
+      <c r="D154" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E154" s="1">
         <v>1857.282114548115</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="1">
         <v>566.71788545188497</v>
       </c>
-      <c r="G154" s="2">
+      <c r="G154" s="1">
         <v>54814.506430640387</v>
       </c>
       <c r="H154">
         <v>200000</v>
       </c>
-      <c r="I154" s="2">
-        <v>180</v>
-      </c>
-      <c r="J154" s="2">
-        <v>1</v>
-      </c>
-      <c r="K154" s="2">
+      <c r="I154" s="1">
+        <v>180</v>
+      </c>
+      <c r="J154" s="1">
+        <v>1</v>
+      </c>
+      <c r="K154" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5747,34 +5749,34 @@
       <c r="A155">
         <v>156</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="2">
         <v>48731</v>
       </c>
       <c r="C155">
         <v>31</v>
       </c>
-      <c r="D155" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E155" s="2">
+      <c r="D155" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E155" s="1">
         <v>1857.5834335500492</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="1">
         <v>566.41656644995078</v>
       </c>
-      <c r="G155" s="2">
+      <c r="G155" s="1">
         <v>52956.92299709034</v>
       </c>
       <c r="H155">
         <v>200000</v>
       </c>
-      <c r="I155" s="2">
-        <v>180</v>
-      </c>
-      <c r="J155" s="2">
-        <v>1</v>
-      </c>
-      <c r="K155" s="2">
+      <c r="I155" s="1">
+        <v>180</v>
+      </c>
+      <c r="J155" s="1">
+        <v>1</v>
+      </c>
+      <c r="K155" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5782,34 +5784,34 @@
       <c r="A156">
         <v>157</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="2">
         <v>48761</v>
       </c>
       <c r="C156">
         <v>30</v>
       </c>
-      <c r="D156" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E156" s="2">
+      <c r="D156" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E156" s="1">
         <v>1894.4307700290965</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="1">
         <v>529.56922997090339</v>
       </c>
-      <c r="G156" s="2">
+      <c r="G156" s="1">
         <v>51062.492227061244</v>
       </c>
       <c r="H156">
         <v>200000</v>
       </c>
-      <c r="I156" s="2">
-        <v>180</v>
-      </c>
-      <c r="J156" s="2">
-        <v>1</v>
-      </c>
-      <c r="K156" s="2">
+      <c r="I156" s="1">
+        <v>180</v>
+      </c>
+      <c r="J156" s="1">
+        <v>1</v>
+      </c>
+      <c r="K156" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5817,34 +5819,34 @@
       <c r="A157">
         <v>158</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="2">
         <v>48792</v>
       </c>
       <c r="C157">
         <v>31</v>
       </c>
-      <c r="D157" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E157" s="2">
+      <c r="D157" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E157" s="1">
         <v>1896.354246987034</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="1">
         <v>527.64575301296611</v>
       </c>
-      <c r="G157" s="2">
+      <c r="G157" s="1">
         <v>49166.137980074207</v>
       </c>
       <c r="H157">
         <v>200000</v>
       </c>
-      <c r="I157" s="2">
-        <v>180</v>
-      </c>
-      <c r="J157" s="2">
-        <v>1</v>
-      </c>
-      <c r="K157" s="2">
+      <c r="I157" s="1">
+        <v>180</v>
+      </c>
+      <c r="J157" s="1">
+        <v>1</v>
+      </c>
+      <c r="K157" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5852,34 +5854,34 @@
       <c r="A158">
         <v>159</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="2">
         <v>48823</v>
       </c>
       <c r="C158">
         <v>31</v>
       </c>
-      <c r="D158" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E158" s="2">
+      <c r="D158" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E158" s="1">
         <v>1915.9499075392332</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="1">
         <v>508.05009246076685</v>
       </c>
-      <c r="G158" s="2">
+      <c r="G158" s="1">
         <v>47250.188072534977</v>
       </c>
       <c r="H158">
         <v>200000</v>
       </c>
-      <c r="I158" s="2">
-        <v>180</v>
-      </c>
-      <c r="J158" s="2">
-        <v>1</v>
-      </c>
-      <c r="K158" s="2">
+      <c r="I158" s="1">
+        <v>180</v>
+      </c>
+      <c r="J158" s="1">
+        <v>1</v>
+      </c>
+      <c r="K158" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5887,34 +5889,34 @@
       <c r="A159">
         <v>160</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="2">
         <v>48853</v>
       </c>
       <c r="C159">
         <v>30</v>
       </c>
-      <c r="D159" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E159" s="2">
+      <c r="D159" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E159" s="1">
         <v>1951.4981192746504</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="1">
         <v>472.50188072534968</v>
       </c>
-      <c r="G159" s="2">
+      <c r="G159" s="1">
         <v>45298.689953260327</v>
       </c>
       <c r="H159">
         <v>200000</v>
       </c>
-      <c r="I159" s="2">
-        <v>180</v>
-      </c>
-      <c r="J159" s="2">
-        <v>1</v>
-      </c>
-      <c r="K159" s="2">
+      <c r="I159" s="1">
+        <v>180</v>
+      </c>
+      <c r="J159" s="1">
+        <v>1</v>
+      </c>
+      <c r="K159" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5922,34 +5924,34 @@
       <c r="A160">
         <v>161</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="2">
         <v>48884</v>
       </c>
       <c r="C160">
         <v>31</v>
       </c>
-      <c r="D160" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E160" s="2">
+      <c r="D160" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E160" s="1">
         <v>1955.9135371496432</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="1">
         <v>468.08646285035672</v>
       </c>
-      <c r="G160" s="2">
+      <c r="G160" s="1">
         <v>43342.776416110682</v>
       </c>
       <c r="H160">
         <v>200000</v>
       </c>
-      <c r="I160" s="2">
-        <v>180</v>
-      </c>
-      <c r="J160" s="2">
-        <v>1</v>
-      </c>
-      <c r="K160" s="2">
+      <c r="I160" s="1">
+        <v>180</v>
+      </c>
+      <c r="J160" s="1">
+        <v>1</v>
+      </c>
+      <c r="K160" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5957,34 +5959,34 @@
       <c r="A161">
         <v>162</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="2">
         <v>48914</v>
       </c>
       <c r="C161">
         <v>30</v>
       </c>
-      <c r="D161" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E161" s="2">
+      <c r="D161" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E161" s="1">
         <v>1990.5722358388932</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="1">
         <v>433.42776416110678</v>
       </c>
-      <c r="G161" s="2">
+      <c r="G161" s="1">
         <v>41352.204180271787</v>
       </c>
       <c r="H161">
         <v>200000</v>
       </c>
-      <c r="I161" s="2">
-        <v>180</v>
-      </c>
-      <c r="J161" s="2">
-        <v>1</v>
-      </c>
-      <c r="K161" s="2">
+      <c r="I161" s="1">
+        <v>180</v>
+      </c>
+      <c r="J161" s="1">
+        <v>1</v>
+      </c>
+      <c r="K161" s="1">
         <v>107</v>
       </c>
     </row>
@@ -5992,34 +5994,34 @@
       <c r="A162">
         <v>163</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="2">
         <v>48945</v>
       </c>
       <c r="C162">
         <v>31</v>
       </c>
-      <c r="D162" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E162" s="2">
+      <c r="D162" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E162" s="1">
         <v>1996.6938901371916</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="1">
         <v>427.30610986280846</v>
       </c>
-      <c r="G162" s="2">
+      <c r="G162" s="1">
         <v>39355.510290134596</v>
       </c>
       <c r="H162">
         <v>200000</v>
       </c>
-      <c r="I162" s="2">
-        <v>180</v>
-      </c>
-      <c r="J162" s="2">
-        <v>1</v>
-      </c>
-      <c r="K162" s="2">
+      <c r="I162" s="1">
+        <v>180</v>
+      </c>
+      <c r="J162" s="1">
+        <v>1</v>
+      </c>
+      <c r="K162" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6027,34 +6029,34 @@
       <c r="A163">
         <v>164</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="2">
         <v>48976</v>
       </c>
       <c r="C163">
         <v>31</v>
       </c>
-      <c r="D163" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E163" s="2">
+      <c r="D163" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E163" s="1">
         <v>2017.3263936686092</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="1">
         <v>406.67360633139083</v>
       </c>
-      <c r="G163" s="2">
+      <c r="G163" s="1">
         <v>37338.183896465984</v>
       </c>
       <c r="H163">
         <v>200000</v>
       </c>
-      <c r="I163" s="2">
-        <v>180</v>
-      </c>
-      <c r="J163" s="2">
-        <v>1</v>
-      </c>
-      <c r="K163" s="2">
+      <c r="I163" s="1">
+        <v>180</v>
+      </c>
+      <c r="J163" s="1">
+        <v>1</v>
+      </c>
+      <c r="K163" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6062,34 +6064,34 @@
       <c r="A164">
         <v>165</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="2">
         <v>49004</v>
       </c>
       <c r="C164">
         <v>28</v>
       </c>
-      <c r="D164" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E164" s="2">
+      <c r="D164" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E164" s="1">
         <v>2075.5102836329843</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="1">
         <v>348.48971636701583</v>
       </c>
-      <c r="G164" s="2">
+      <c r="G164" s="1">
         <v>35262.673612833001</v>
       </c>
       <c r="H164">
         <v>200000</v>
       </c>
-      <c r="I164" s="2">
-        <v>180</v>
-      </c>
-      <c r="J164" s="2">
-        <v>1</v>
-      </c>
-      <c r="K164" s="2">
+      <c r="I164" s="1">
+        <v>180</v>
+      </c>
+      <c r="J164" s="1">
+        <v>1</v>
+      </c>
+      <c r="K164" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6097,34 +6099,34 @@
       <c r="A165">
         <v>166</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="2">
         <v>49035</v>
       </c>
       <c r="C165">
         <v>31</v>
       </c>
-      <c r="D165" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E165" s="2">
+      <c r="D165" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E165" s="1">
         <v>2059.6190393340589</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="1">
         <v>364.38096066594102</v>
       </c>
-      <c r="G165" s="2">
+      <c r="G165" s="1">
         <v>33203.054573498943</v>
       </c>
       <c r="H165">
         <v>200000</v>
       </c>
-      <c r="I165" s="2">
-        <v>180</v>
-      </c>
-      <c r="J165" s="2">
-        <v>1</v>
-      </c>
-      <c r="K165" s="2">
+      <c r="I165" s="1">
+        <v>180</v>
+      </c>
+      <c r="J165" s="1">
+        <v>1</v>
+      </c>
+      <c r="K165" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6132,34 +6134,34 @@
       <c r="A166">
         <v>167</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="2">
         <v>49065</v>
       </c>
       <c r="C166">
         <v>30</v>
       </c>
-      <c r="D166" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E166" s="2">
+      <c r="D166" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E166" s="1">
         <v>2091.9694542650104</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166" s="1">
         <v>332.03054573498946</v>
       </c>
-      <c r="G166" s="2">
+      <c r="G166" s="1">
         <v>31111.085119233932</v>
       </c>
       <c r="H166">
         <v>200000</v>
       </c>
-      <c r="I166" s="2">
-        <v>180</v>
-      </c>
-      <c r="J166" s="2">
-        <v>1</v>
-      </c>
-      <c r="K166" s="2">
+      <c r="I166" s="1">
+        <v>180</v>
+      </c>
+      <c r="J166" s="1">
+        <v>1</v>
+      </c>
+      <c r="K166" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6167,34 +6169,34 @@
       <c r="A167">
         <v>168</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="2">
         <v>49096</v>
       </c>
       <c r="C167">
         <v>31</v>
       </c>
-      <c r="D167" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E167" s="2">
+      <c r="D167" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E167" s="1">
         <v>2102.5187871012495</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167" s="1">
         <v>321.48121289875064</v>
       </c>
-      <c r="G167" s="2">
+      <c r="G167" s="1">
         <v>29008.566332132683</v>
       </c>
       <c r="H167">
         <v>200000</v>
       </c>
-      <c r="I167" s="2">
-        <v>180</v>
-      </c>
-      <c r="J167" s="2">
-        <v>1</v>
-      </c>
-      <c r="K167" s="2">
+      <c r="I167" s="1">
+        <v>180</v>
+      </c>
+      <c r="J167" s="1">
+        <v>1</v>
+      </c>
+      <c r="K167" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6202,34 +6204,34 @@
       <c r="A168">
         <v>169</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="2">
         <v>49126</v>
       </c>
       <c r="C168">
         <v>30</v>
       </c>
-      <c r="D168" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E168" s="2">
+      <c r="D168" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E168" s="1">
         <v>2133.914336678673</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168" s="1">
         <v>290.08566332132682</v>
       </c>
-      <c r="G168" s="2">
+      <c r="G168" s="1">
         <v>26874.651995454009</v>
       </c>
       <c r="H168">
         <v>200000</v>
       </c>
-      <c r="I168" s="2">
-        <v>180</v>
-      </c>
-      <c r="J168" s="2">
-        <v>1</v>
-      </c>
-      <c r="K168" s="2">
+      <c r="I168" s="1">
+        <v>180</v>
+      </c>
+      <c r="J168" s="1">
+        <v>1</v>
+      </c>
+      <c r="K168" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6237,34 +6239,34 @@
       <c r="A169">
         <v>170</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="2">
         <v>49157</v>
       </c>
       <c r="C169">
         <v>31</v>
       </c>
-      <c r="D169" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E169" s="2">
+      <c r="D169" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E169" s="1">
         <v>2146.2952627136419</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169" s="1">
         <v>277.70473728635807</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G169" s="1">
         <v>24728.356732740365</v>
       </c>
       <c r="H169">
         <v>200000</v>
       </c>
-      <c r="I169" s="2">
-        <v>180</v>
-      </c>
-      <c r="J169" s="2">
-        <v>1</v>
-      </c>
-      <c r="K169" s="2">
+      <c r="I169" s="1">
+        <v>180</v>
+      </c>
+      <c r="J169" s="1">
+        <v>1</v>
+      </c>
+      <c r="K169" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6272,34 +6274,34 @@
       <c r="A170">
         <v>171</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="2">
         <v>49188</v>
       </c>
       <c r="C170">
         <v>31</v>
       </c>
-      <c r="D170" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E170" s="2">
+      <c r="D170" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E170" s="1">
         <v>2168.4736470950161</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170" s="1">
         <v>255.52635290498378</v>
       </c>
-      <c r="G170" s="2">
+      <c r="G170" s="1">
         <v>22559.88308564535</v>
       </c>
       <c r="H170">
         <v>200000</v>
       </c>
-      <c r="I170" s="2">
-        <v>180</v>
-      </c>
-      <c r="J170" s="2">
-        <v>1</v>
-      </c>
-      <c r="K170" s="2">
+      <c r="I170" s="1">
+        <v>180</v>
+      </c>
+      <c r="J170" s="1">
+        <v>1</v>
+      </c>
+      <c r="K170" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6307,34 +6309,34 @@
       <c r="A171">
         <v>172</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="2">
         <v>49218</v>
       </c>
       <c r="C171">
         <v>30</v>
       </c>
-      <c r="D171" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E171" s="2">
+      <c r="D171" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E171" s="1">
         <v>2198.4011691435467</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171" s="1">
         <v>225.59883085645347</v>
       </c>
-      <c r="G171" s="2">
+      <c r="G171" s="1">
         <v>20361.481916501802</v>
       </c>
       <c r="H171">
         <v>200000</v>
       </c>
-      <c r="I171" s="2">
-        <v>180</v>
-      </c>
-      <c r="J171" s="2">
-        <v>1</v>
-      </c>
-      <c r="K171" s="2">
+      <c r="I171" s="1">
+        <v>180</v>
+      </c>
+      <c r="J171" s="1">
+        <v>1</v>
+      </c>
+      <c r="K171" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6342,34 +6344,34 @@
       <c r="A172">
         <v>173</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="2">
         <v>49249</v>
       </c>
       <c r="C172">
         <v>31</v>
       </c>
-      <c r="D172" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E172" s="2">
+      <c r="D172" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E172" s="1">
         <v>2213.5980201961479</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172" s="1">
         <v>210.40197980385193</v>
       </c>
-      <c r="G172" s="2">
+      <c r="G172" s="1">
         <v>18147.883896305655</v>
       </c>
       <c r="H172">
         <v>200000</v>
       </c>
-      <c r="I172" s="2">
-        <v>180</v>
-      </c>
-      <c r="J172" s="2">
-        <v>1</v>
-      </c>
-      <c r="K172" s="2">
+      <c r="I172" s="1">
+        <v>180</v>
+      </c>
+      <c r="J172" s="1">
+        <v>1</v>
+      </c>
+      <c r="K172" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6377,34 +6379,34 @@
       <c r="A173">
         <v>174</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="2">
         <v>49279</v>
       </c>
       <c r="C173">
         <v>30</v>
       </c>
-      <c r="D173" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E173" s="2">
+      <c r="D173" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E173" s="1">
         <v>2242.5211610369433</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173" s="1">
         <v>181.47883896305655</v>
       </c>
-      <c r="G173" s="2">
+      <c r="G173" s="1">
         <v>15905.362735268711</v>
       </c>
       <c r="H173">
         <v>200000</v>
       </c>
-      <c r="I173" s="2">
-        <v>180</v>
-      </c>
-      <c r="J173" s="2">
-        <v>1</v>
-      </c>
-      <c r="K173" s="2">
+      <c r="I173" s="1">
+        <v>180</v>
+      </c>
+      <c r="J173" s="1">
+        <v>1</v>
+      </c>
+      <c r="K173" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6412,34 +6414,34 @@
       <c r="A174">
         <v>175</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="2">
         <v>49310</v>
       </c>
       <c r="C174">
         <v>31</v>
       </c>
-      <c r="D174" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E174" s="2">
+      <c r="D174" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E174" s="1">
         <v>2259.6445850688901</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174" s="1">
         <v>164.35541493111</v>
       </c>
-      <c r="G174" s="2">
+      <c r="G174" s="1">
         <v>13645.71815019982</v>
       </c>
       <c r="H174">
         <v>200000</v>
       </c>
-      <c r="I174" s="2">
-        <v>180</v>
-      </c>
-      <c r="J174" s="2">
-        <v>1</v>
-      </c>
-      <c r="K174" s="2">
+      <c r="I174" s="1">
+        <v>180</v>
+      </c>
+      <c r="J174" s="1">
+        <v>1</v>
+      </c>
+      <c r="K174" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6447,34 +6449,34 @@
       <c r="A175">
         <v>176</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="2">
         <v>49341</v>
       </c>
       <c r="C175">
         <v>31</v>
       </c>
-      <c r="D175" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E175" s="2">
+      <c r="D175" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E175" s="1">
         <v>2282.9942457812685</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175" s="1">
         <v>141.00575421873145</v>
       </c>
-      <c r="G175" s="2">
+      <c r="G175" s="1">
         <v>11362.723904418552</v>
       </c>
       <c r="H175">
         <v>200000</v>
       </c>
-      <c r="I175" s="2">
-        <v>180</v>
-      </c>
-      <c r="J175" s="2">
-        <v>1</v>
-      </c>
-      <c r="K175" s="2">
+      <c r="I175" s="1">
+        <v>180</v>
+      </c>
+      <c r="J175" s="1">
+        <v>1</v>
+      </c>
+      <c r="K175" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6482,34 +6484,34 @@
       <c r="A176">
         <v>177</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="2">
         <v>49369</v>
       </c>
       <c r="C176">
         <v>28</v>
       </c>
-      <c r="D176" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E176" s="2">
+      <c r="D176" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E176" s="1">
         <v>2317.9479102254268</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176" s="1">
         <v>106.05208977457315</v>
       </c>
-      <c r="G176" s="2">
+      <c r="G176" s="1">
         <v>9044.7759941931254</v>
       </c>
       <c r="H176">
         <v>200000</v>
       </c>
-      <c r="I176" s="2">
-        <v>180</v>
-      </c>
-      <c r="J176" s="2">
-        <v>1</v>
-      </c>
-      <c r="K176" s="2">
+      <c r="I176" s="1">
+        <v>180</v>
+      </c>
+      <c r="J176" s="1">
+        <v>1</v>
+      </c>
+      <c r="K176" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6517,34 +6519,34 @@
       <c r="A177">
         <v>178</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="2">
         <v>49400</v>
       </c>
       <c r="C177">
         <v>31</v>
       </c>
-      <c r="D177" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E177" s="2">
+      <c r="D177" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E177" s="1">
         <v>2330.537314726671</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177" s="1">
         <v>93.462685273328958</v>
       </c>
-      <c r="G177" s="2">
+      <c r="G177" s="1">
         <v>6714.2386794664544</v>
       </c>
       <c r="H177">
         <v>200000</v>
       </c>
-      <c r="I177" s="2">
-        <v>180</v>
-      </c>
-      <c r="J177" s="2">
-        <v>1</v>
-      </c>
-      <c r="K177" s="2">
+      <c r="I177" s="1">
+        <v>180</v>
+      </c>
+      <c r="J177" s="1">
+        <v>1</v>
+      </c>
+      <c r="K177" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6552,34 +6554,34 @@
       <c r="A178">
         <v>179</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="2">
         <v>49430</v>
       </c>
       <c r="C178">
         <v>30</v>
       </c>
-      <c r="D178" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E178" s="2">
+      <c r="D178" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E178" s="1">
         <v>2356.8576132053354</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178" s="1">
         <v>67.142386794664532</v>
       </c>
-      <c r="G178" s="2">
+      <c r="G178" s="1">
         <v>4357.3810662611195</v>
       </c>
       <c r="H178">
         <v>200000</v>
       </c>
-      <c r="I178" s="2">
-        <v>180</v>
-      </c>
-      <c r="J178" s="2">
-        <v>1</v>
-      </c>
-      <c r="K178" s="2">
+      <c r="I178" s="1">
+        <v>180</v>
+      </c>
+      <c r="J178" s="1">
+        <v>1</v>
+      </c>
+      <c r="K178" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6587,34 +6589,34 @@
       <c r="A179">
         <v>180</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="2">
         <v>49461</v>
       </c>
       <c r="C179">
         <v>31</v>
       </c>
-      <c r="D179" s="2">
-        <v>2424</v>
-      </c>
-      <c r="E179" s="2">
+      <c r="D179" s="1">
+        <v>2424</v>
+      </c>
+      <c r="E179" s="1">
         <v>2378.9737289819686</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179" s="1">
         <v>45.026271018031565</v>
       </c>
-      <c r="G179" s="2">
+      <c r="G179" s="1">
         <v>1978.4073372791509</v>
       </c>
       <c r="H179">
         <v>200000</v>
       </c>
-      <c r="I179" s="2">
-        <v>180</v>
-      </c>
-      <c r="J179" s="2">
-        <v>1</v>
-      </c>
-      <c r="K179" s="2">
+      <c r="I179" s="1">
+        <v>180</v>
+      </c>
+      <c r="J179" s="1">
+        <v>1</v>
+      </c>
+      <c r="K179" s="1">
         <v>107</v>
       </c>
     </row>
@@ -6622,38 +6624,39 @@
       <c r="A180">
         <v>181</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="2">
         <v>49491</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="1">
         <v>1978.4073372791509</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="1">
         <v>1978.4073372791509</v>
       </c>
-      <c r="F180" s="2">
+      <c r="F180" s="1">
         <v>0</v>
       </c>
-      <c r="G180" s="2">
+      <c r="G180" s="1">
         <v>0</v>
       </c>
       <c r="H180">
         <v>200000</v>
       </c>
-      <c r="I180" s="2">
-        <v>180</v>
-      </c>
-      <c r="J180" s="2">
-        <v>1</v>
-      </c>
-      <c r="K180" s="2">
+      <c r="I180" s="1">
+        <v>180</v>
+      </c>
+      <c r="J180" s="1">
+        <v>1</v>
+      </c>
+      <c r="K180" s="1">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>